--- a/code_generate_figures/save_data/metrics_top_ens.xlsx
+++ b/code_generate_figures/save_data/metrics_top_ens.xlsx
@@ -625,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.62402871564314</v>
+        <v>0.774120565451787</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5496303443322</v>
+        <v>0.700749372030265</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -653,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.745006086237018</v>
+        <v>0.80257554220104</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -667,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.667733420435911</v>
+        <v>0.732234899456429</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.618777648160194</v>
+        <v>0.640101633208522</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -695,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.691724015631647</v>
+        <v>0.699976613109008</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -709,7 +709,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.557668276144846</v>
+        <v>0.623823386369685</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -723,7 +723,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.73314025829413</v>
+        <v>0.709763138654842</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -737,7 +737,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.849777060015058</v>
+        <v>0.820528208658825</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -751,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.824641096392686</v>
+        <v>0.774273714309226</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -765,7 +765,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.728383614752434</v>
+        <v>0.606969018763284</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -779,7 +779,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.590175879396985</v>
+        <v>0.779059865152091</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -793,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.77867834777331</v>
+        <v>0.533775305064207</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -807,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.77867834777331</v>
+        <v>0.931499494831669</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -821,7 +821,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.589515810896006</v>
+        <v>0.49748743718593</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -835,7 +835,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.507591147225489</v>
+        <v>0.525410050969566</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -849,7 +849,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.918893287151575</v>
+        <v>0.969048239345793</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -863,7 +863,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.710367064982358</v>
+        <v>0.697236738391274</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -877,7 +877,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.688057389846518</v>
+        <v>0.708245997861046</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -891,7 +891,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.723801498338011</v>
+        <v>0.742097562785444</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -905,7 +905,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.671746730924808</v>
+        <v>0.67117446330971</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -919,7 +919,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.649415706000147</v>
+        <v>0.752239539081269</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -933,7 +933,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.747735095014725</v>
+        <v>0.796066731422242</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -947,7 +947,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.633696513100489</v>
+        <v>0.636909827971639</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -961,7 +961,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.793992982165088</v>
+        <v>0.793753832571812</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -975,7 +975,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.721054086765118</v>
+        <v>0.75910784777683</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -989,7 +989,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.641273674171354</v>
+        <v>0.673630633267933</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1003,7 +1003,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.718806340993274</v>
+        <v>0.726237655932455</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1017,7 +1017,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.545093961463401</v>
+        <v>0.637071763510895</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1031,7 +1031,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.717798557408372</v>
+        <v>0.752150253904165</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1045,7 +1045,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.821131537338321</v>
+        <v>0.821084227282937</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1059,7 +1059,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.784756418038264</v>
+        <v>0.779716589575491</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1073,7 +1073,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.644514582746681</v>
+        <v>0.638863082921611</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1087,7 +1087,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.838194399172839</v>
+        <v>0.849105471334262</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1101,7 +1101,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.893906637383006</v>
+        <v>0.69395705119062</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1115,7 +1115,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.958114413701383</v>
+        <v>0.975571511024529</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1129,7 +1129,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.513087640264842</v>
+        <v>0.49748743718593</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1143,7 +1143,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.599183448166115</v>
+        <v>0.717041416881538</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1157,7 +1157,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.874351138837848</v>
+        <v>0.976516813547091</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1171,7 +1171,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.770420961482653</v>
+        <v>0.730175213649904</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1185,7 +1185,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.723330582754975</v>
+        <v>0.741055192388474</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1199,7 +1199,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.777463219905284</v>
+        <v>0.769658245805399</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1213,7 +1213,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.684016479404254</v>
+        <v>0.703533362316639</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1227,7 +1227,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.744538951948451</v>
+        <v>0.793519953496638</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1241,7 +1241,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.741491727414282</v>
+        <v>0.782655779262517</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1255,7 +1255,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>0.663209167621788</v>
+        <v>0.713885462193125</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1269,7 +1269,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.803981336001397</v>
+        <v>0.784825335715362</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1283,7 +1283,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.742201849026776</v>
+        <v>0.740288496673055</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1297,7 +1297,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.645077639175146</v>
+        <v>0.638244253875937</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1311,7 +1311,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.705564929586314</v>
+        <v>0.69808889912727</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1325,7 +1325,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.611473813647824</v>
+        <v>0.592764001253173</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1339,7 +1339,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>0.734172961166956</v>
+        <v>0.748735265651746</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1353,7 +1353,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>0.841403803616452</v>
+        <v>0.853363077683777</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>0.794133899702936</v>
+        <v>0.817117446877015</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1381,7 +1381,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>0.62341469251017</v>
+        <v>0.608750233761846</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1395,7 +1395,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>0.780819362921048</v>
+        <v>0.76850287853835</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1409,7 +1409,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>0.644951258639546</v>
+        <v>0.541634547515472</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>0.923200219055091</v>
+        <v>0.912039124045211</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1451,7 +1451,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>0.503215492861894</v>
+        <v>0.504733174365975</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1465,7 +1465,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>0.971350512527451</v>
+        <v>0.978257332072424</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1479,7 +1479,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>0.725828015888828</v>
+        <v>0.709062650888585</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1493,7 +1493,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>0.717429477833728</v>
+        <v>0.725260329243701</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1507,7 +1507,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>0.750130580680477</v>
+        <v>0.756294502032302</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1521,7 +1521,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>0.67448769907509</v>
+        <v>0.669751342663103</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1535,7 +1535,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>0.762374079788662</v>
+        <v>0.752323703745654</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2977,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.898591635341914</v>
+        <v>0.905249501686496</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2991,7 +2991,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.694896998570413</v>
+        <v>0.725531087717142</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -3005,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.667943990534276</v>
+        <v>0.703479773391102</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -3019,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.529754062410376</v>
+        <v>0.536901897704205</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -3033,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.922517127774792</v>
+        <v>0.921611619679402</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -3047,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.965804410499693</v>
+        <v>0.966203839544514</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -3061,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.999771036058819</v>
+        <v>0.99953172556552</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -3075,7 +3075,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.144266517543017</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -3089,7 +3089,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.748917488009296</v>
+        <v>0.762445944902088</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
@@ -3103,7 +3103,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.978474250542322</v>
+        <v>0.967292369224039</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
@@ -3117,7 +3117,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0792128062651713</v>
+        <v>0.0686003025306935</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -3131,7 +3131,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.33810795954193</v>
+        <v>0.330059927848371</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
@@ -3145,7 +3145,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0485169497326714</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -3159,7 +3159,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.285439133851635</v>
+        <v>0.264287426642421</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
@@ -3173,7 +3173,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.969503671084036</v>
+        <v>0.958916120503063</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
@@ -3187,7 +3187,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.918672672883704</v>
+        <v>0.914790301313773</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
@@ -3201,7 +3201,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.924924148731276</v>
+        <v>0.920823172557818</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
@@ -3215,7 +3215,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.915365289807766</v>
+        <v>0.918863591755788</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
@@ -3229,7 +3229,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.62335117530289</v>
+        <v>0.626024298425312</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
@@ -3243,7 +3243,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.840785939000831</v>
+        <v>0.849726014940432</v>
       </c>
       <c r="C21" t="s">
         <v>74</v>
@@ -3257,7 +3257,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.576178703798099</v>
+        <v>0.57749002891133</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
@@ -3271,7 +3271,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.940735158739636</v>
+        <v>0.971529202795852</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -3285,7 +3285,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.967520286928381</v>
+        <v>0.984191525467222</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -3299,7 +3299,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.997187054905904</v>
+        <v>0.995542499802925</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -3313,7 +3313,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.465977694331148</v>
+        <v>0.674332565911523</v>
       </c>
       <c r="C26" t="s">
         <v>74</v>
@@ -3327,7 +3327,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.835815896943027</v>
+        <v>0.953843757323927</v>
       </c>
       <c r="C27" t="s">
         <v>74</v>
@@ -3341,7 +3341,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.974599487022739</v>
+        <v>0.984402014481627</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
@@ -3355,7 +3355,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.201608372330299</v>
+        <v>0.201569952440035</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
@@ -3369,7 +3369,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.534104071293948</v>
+        <v>0.531329687811576</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
@@ -3383,7 +3383,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.153176314122555</v>
+        <v>0.150601738927209</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
@@ -3397,7 +3397,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.467765229152998</v>
+        <v>0.466447514491237</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
@@ -3411,7 +3411,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9728458861544</v>
+        <v>0.97194233519644</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
@@ -3425,7 +3425,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.929296257099927</v>
+        <v>0.933123919731605</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
@@ -3439,7 +3439,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.946204145446416</v>
+        <v>0.945752388846091</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
@@ -3453,7 +3453,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.890259289206274</v>
+        <v>0.91625836255762</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
@@ -3467,7 +3467,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.750899610092484</v>
+        <v>0.670532420993822</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
@@ -3481,7 +3481,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.66485775593631</v>
+        <v>0.850117335916092</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
@@ -3495,7 +3495,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.510161593435159</v>
+        <v>0.552741858826961</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
@@ -3509,7 +3509,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.777099618519801</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
@@ -3523,7 +3523,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.612372435695794</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
@@ -3537,7 +3537,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.381881307912987</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
@@ -3551,7 +3551,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.558328803797195</v>
       </c>
       <c r="C43" t="s">
         <v>74</v>
@@ -3565,7 +3565,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.761504071849632</v>
       </c>
       <c r="C44" t="s">
         <v>74</v>
@@ -3579,7 +3579,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.595119035711904</v>
       </c>
       <c r="C45" t="s">
         <v>74</v>
@@ -3635,7 +3635,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.0482924637135287</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
@@ -3649,7 +3649,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.547524491464212</v>
       </c>
       <c r="C50" t="s">
         <v>74</v>
@@ -3663,7 +3663,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.17415007378898</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
@@ -3677,7 +3677,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.913431667735448</v>
+        <v>0.945861887962038</v>
       </c>
       <c r="C52" t="s">
         <v>74</v>
@@ -3719,7 +3719,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.800838472872106</v>
+        <v>0.823756209933175</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
@@ -3733,7 +3733,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.727752568723766</v>
+        <v>0.796526223684103</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
@@ -3747,7 +3747,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.83063917488706</v>
+        <v>0.85807478566516</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
@@ -3761,7 +3761,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.81947870558224</v>
+        <v>0.818840571383867</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -3775,7 +3775,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.692141671608305</v>
+        <v>0.696821896020594</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -3789,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.77319371084239</v>
+        <v>0.766394658719687</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -3803,7 +3803,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.648362502375273</v>
+        <v>0.679350739824009</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -3817,7 +3817,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.803667044176647</v>
+        <v>0.768626602301269</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
@@ -3831,7 +3831,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.93153601489423</v>
+        <v>0.89505416637418</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
@@ -3845,7 +3845,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.903254575974126</v>
+        <v>0.859426325007734</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
@@ -3859,7 +3859,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.850140056022409</v>
+        <v>0.69079939668175</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -3873,7 +3873,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.801120448179272</v>
+        <v>0.848613804496158</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
@@ -3887,7 +3887,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.946098823496427</v>
+        <v>0.67851347704644</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
@@ -3901,7 +3901,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.946098823496427</v>
+        <v>0.977290011460133</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
@@ -3915,7 +3915,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.850017375165599</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -3929,7 +3929,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.535934248146128</v>
+        <v>0.665149360019886</v>
       </c>
       <c r="C17" t="s">
         <v>75</v>
@@ -3943,7 +3943,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.97452202961027</v>
+        <v>0.984953806494298</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -3957,7 +3957,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.790703322029519</v>
+        <v>0.778829896736306</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -3971,7 +3971,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.74622092829737</v>
+        <v>0.753464457384793</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
@@ -3985,7 +3985,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.770452138213753</v>
+        <v>0.780011501839519</v>
       </c>
       <c r="C21" t="s">
         <v>75</v>
@@ -3999,7 +3999,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.702801291555457</v>
+        <v>0.706810925460146</v>
       </c>
       <c r="C22" t="s">
         <v>75</v>
@@ -4013,7 +4013,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.835151098972465</v>
+        <v>0.83330281421371</v>
       </c>
       <c r="C23" t="s">
         <v>75</v>
@@ -4027,7 +4027,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.837322304163153</v>
+        <v>0.838208162259676</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -4041,7 +4041,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.77106839601303</v>
+        <v>0.787794508012874</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
@@ -4055,7 +4055,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.867499880088813</v>
+        <v>0.868645054816635</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -4069,7 +4069,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.830451275889137</v>
+        <v>0.828876683789374</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -4083,7 +4083,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.702144189436039</v>
+        <v>0.729074397911258</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -4097,7 +4097,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.781208107863924</v>
+        <v>0.779192469814731</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -4111,7 +4111,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.630840133532008</v>
+        <v>0.685700343644503</v>
       </c>
       <c r="C30" t="s">
         <v>75</v>
@@ -4125,7 +4125,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.784733047823215</v>
+        <v>0.805155895663186</v>
       </c>
       <c r="C31" t="s">
         <v>75</v>
@@ -4139,7 +4139,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.895190031148617</v>
+        <v>0.871753357558238</v>
       </c>
       <c r="C32" t="s">
         <v>75</v>
@@ -4153,7 +4153,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.856941940560886</v>
+        <v>0.836595651443019</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
@@ -4167,7 +4167,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.761592889654471</v>
+        <v>0.727285786109315</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
@@ -4181,7 +4181,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.925585769371095</v>
+        <v>0.885656826833297</v>
       </c>
       <c r="C35" t="s">
         <v>75</v>
@@ -4195,7 +4195,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.96945132714416</v>
+        <v>0.89979100735855</v>
       </c>
       <c r="C36" t="s">
         <v>75</v>
@@ -4209,7 +4209,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.98335301765982</v>
+        <v>0.986285222970266</v>
       </c>
       <c r="C37" t="s">
         <v>75</v>
@@ -4223,7 +4223,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.644699435603279</v>
+        <v>0.495665878644602</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
@@ -4237,7 +4237,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.703324024617114</v>
+        <v>0.860853253563133</v>
       </c>
       <c r="C39" t="s">
         <v>75</v>
@@ -4251,7 +4251,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.969550489095269</v>
+        <v>0.995207021431663</v>
       </c>
       <c r="C40" t="s">
         <v>75</v>
@@ -4265,7 +4265,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.817557681693925</v>
+        <v>0.793679382510005</v>
       </c>
       <c r="C41" t="s">
         <v>75</v>
@@ -4279,7 +4279,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.766244340202032</v>
+        <v>0.769304932053265</v>
       </c>
       <c r="C42" t="s">
         <v>75</v>
@@ -4293,7 +4293,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.805532205453245</v>
+        <v>0.79408483269599</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -4307,7 +4307,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.724605876589432</v>
+        <v>0.735335003317246</v>
       </c>
       <c r="C44" t="s">
         <v>75</v>
@@ -4321,7 +4321,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.853824253389931</v>
+        <v>0.844214683920613</v>
       </c>
       <c r="C45" t="s">
         <v>75</v>
@@ -4335,7 +4335,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.823518850035048</v>
+        <v>0.825703490402471</v>
       </c>
       <c r="C46" t="s">
         <v>75</v>
@@ -4349,7 +4349,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>0.796647315625811</v>
+        <v>0.795334910596509</v>
       </c>
       <c r="C47" t="s">
         <v>75</v>
@@ -4363,7 +4363,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.864478926560017</v>
+        <v>0.83102468286083</v>
       </c>
       <c r="C48" t="s">
         <v>75</v>
@@ -4377,7 +4377,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.836016785808111</v>
+        <v>0.805554150278132</v>
       </c>
       <c r="C49" t="s">
         <v>75</v>
@@ -4391,7 +4391,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.701756654930562</v>
+        <v>0.697679516760523</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
@@ -4405,7 +4405,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.774560400577679</v>
+        <v>0.76999941755169</v>
       </c>
       <c r="C51" t="s">
         <v>75</v>
@@ -4419,7 +4419,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.680623412312407</v>
+        <v>0.673108911871902</v>
       </c>
       <c r="C52" t="s">
         <v>75</v>
@@ -4433,7 +4433,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>0.79178507659161</v>
+        <v>0.806682756937811</v>
       </c>
       <c r="C53" t="s">
         <v>75</v>
@@ -4447,7 +4447,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>0.911642608357819</v>
+        <v>0.909507590473809</v>
       </c>
       <c r="C54" t="s">
         <v>75</v>
@@ -4461,7 +4461,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>0.874609752696997</v>
+        <v>0.879581756466274</v>
       </c>
       <c r="C55" t="s">
         <v>75</v>
@@ -4475,7 +4475,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>0.69311570782159</v>
+        <v>0.688213747037276</v>
       </c>
       <c r="C56" t="s">
         <v>75</v>
@@ -4489,7 +4489,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>0.847967392085039</v>
+        <v>0.831142713495655</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
@@ -4503,7 +4503,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>0.877571666719236</v>
+        <v>0.799219869838121</v>
       </c>
       <c r="C58" t="s">
         <v>75</v>
@@ -4517,7 +4517,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>0.975596107993939</v>
+        <v>0.973318099884231</v>
       </c>
       <c r="C59" t="s">
         <v>75</v>
@@ -4531,7 +4531,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>0.515486489674186</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
@@ -4545,7 +4545,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>0.556264164543894</v>
+        <v>0.688296627105798</v>
       </c>
       <c r="C61" t="s">
         <v>75</v>
@@ -4559,7 +4559,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>0.985423706353939</v>
+        <v>0.986833405932862</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
@@ -4573,7 +4573,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>0.791318048774878</v>
+        <v>0.779144333404663</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
@@ -4587,7 +4587,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>0.757879841152917</v>
+        <v>0.757580549050262</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
@@ -4601,7 +4601,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>0.784251106514263</v>
+        <v>0.778787375132887</v>
       </c>
       <c r="C65" t="s">
         <v>75</v>
@@ -4615,7 +4615,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>0.707809757835828</v>
+        <v>0.700051545362312</v>
       </c>
       <c r="C66" t="s">
         <v>75</v>
@@ -4629,7 +4629,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>0.85004304750442</v>
+        <v>0.828874832369222</v>
       </c>
       <c r="C67" t="s">
         <v>75</v>
@@ -4671,7 +4671,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.928927910176227</v>
+        <v>0.929880806867071</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
@@ -4685,7 +4685,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.861160930367414</v>
+        <v>0.86283171657209</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
@@ -4699,7 +4699,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.920873672092925</v>
+        <v>0.920564923414755</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
@@ -4713,7 +4713,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.72392943861205</v>
+        <v>0.723831357339843</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -4727,7 +4727,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.610777725079115</v>
+        <v>0.610431559342267</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4741,7 +4741,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.658498597233052</v>
+        <v>0.657150912669384</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -4755,7 +4755,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.624528726577008</v>
+        <v>0.624293022875686</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -4769,7 +4769,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.750173749570619</v>
+        <v>0.753397459838497</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
@@ -4783,7 +4783,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.825417720907158</v>
+        <v>0.826985831638042</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
@@ -4797,7 +4797,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.79826422593743</v>
+        <v>0.798416958021134</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
@@ -4811,7 +4811,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.966985326811916</v>
+        <v>0.707103898028754</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.919038091003409</v>
+        <v>0.918667555950793</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
@@ -4839,7 +4839,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.964433753253629</v>
+        <v>0.921402530098182</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
@@ -4853,7 +4853,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.975575876196994</v>
+        <v>0.969168540597112</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
@@ -4867,7 +4867,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.708337006864129</v>
+        <v>0.681641952028732</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -4881,7 +4881,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.893228553269267</v>
+        <v>0.905948839010748</v>
       </c>
       <c r="C17" t="s">
         <v>75</v>
@@ -4895,7 +4895,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.962374272037785</v>
+        <v>0.964567424751834</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -4909,7 +4909,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.791426706782822</v>
+        <v>0.796195844649513</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -4923,7 +4923,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.746968142099825</v>
+        <v>0.74861584309944</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
@@ -4937,7 +4937,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.765572830464049</v>
+        <v>0.769121070722988</v>
       </c>
       <c r="C21" t="s">
         <v>75</v>
@@ -4951,7 +4951,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.652724103734008</v>
+        <v>0.649066833021691</v>
       </c>
       <c r="C22" t="s">
         <v>75</v>
@@ -4965,7 +4965,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.726472139644875</v>
+        <v>0.722117608151242</v>
       </c>
       <c r="C23" t="s">
         <v>75</v>
@@ -4979,7 +4979,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.931768608953075</v>
+        <v>0.928852610891446</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -4993,7 +4993,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.867580838674324</v>
+        <v>0.858949544556018</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
@@ -5007,7 +5007,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.907899680922717</v>
+        <v>0.893158530043719</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -5021,7 +5021,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.754539040721097</v>
+        <v>0.756413627596533</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -5035,7 +5035,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.651682382479749</v>
+        <v>0.649043728613498</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -5049,7 +5049,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.730604737252506</v>
+        <v>0.732372967193743</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -5063,7 +5063,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.648095077319657</v>
+        <v>0.647498197973692</v>
       </c>
       <c r="C30" t="s">
         <v>75</v>
@@ -5077,7 +5077,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.829557145656026</v>
+        <v>0.835055023381618</v>
       </c>
       <c r="C31" t="s">
         <v>75</v>
@@ -5091,7 +5091,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.87633178907549</v>
+        <v>0.874071323567573</v>
       </c>
       <c r="C32" t="s">
         <v>75</v>
@@ -5105,7 +5105,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.852393948518692</v>
+        <v>0.85041628655201</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
@@ -5119,7 +5119,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.747239513858011</v>
+        <v>0.748906921594783</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
@@ -5133,7 +5133,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.915462427745665</v>
+        <v>0.913795020008893</v>
       </c>
       <c r="C35" t="s">
         <v>75</v>
@@ -5147,7 +5147,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.959834245548531</v>
+        <v>0.958899586228779</v>
       </c>
       <c r="C36" t="s">
         <v>75</v>
@@ -5161,7 +5161,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.971320716662332</v>
+        <v>0.972181587088419</v>
       </c>
       <c r="C37" t="s">
         <v>75</v>
@@ -5175,7 +5175,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.786693967031651</v>
+        <v>0.799721294153099</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
@@ -5189,7 +5189,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.932108764583917</v>
+        <v>0.933424656212346</v>
       </c>
       <c r="C39" t="s">
         <v>75</v>
@@ -5203,7 +5203,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.962812902580595</v>
+        <v>0.961935641494976</v>
       </c>
       <c r="C40" t="s">
         <v>75</v>
@@ -5217,7 +5217,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.813440294058415</v>
+        <v>0.809853030987614</v>
       </c>
       <c r="C41" t="s">
         <v>75</v>
@@ -5231,7 +5231,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.79237119844597</v>
+        <v>0.786243687271889</v>
       </c>
       <c r="C42" t="s">
         <v>75</v>
@@ -5245,7 +5245,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.809380872524974</v>
+        <v>0.805196803461492</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -5259,7 +5259,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.692827484495627</v>
+        <v>0.684273393348956</v>
       </c>
       <c r="C44" t="s">
         <v>75</v>
@@ -5273,7 +5273,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.776093985960006</v>
+        <v>0.774236374710795</v>
       </c>
       <c r="C45" t="s">
         <v>75</v>
@@ -5287,7 +5287,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.914371646021337</v>
+        <v>0.911654722145718</v>
       </c>
       <c r="C46" t="s">
         <v>75</v>
@@ -5301,7 +5301,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>0.83081167284985</v>
+        <v>0.844710513038548</v>
       </c>
       <c r="C47" t="s">
         <v>75</v>
@@ -5315,7 +5315,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.861196767717533</v>
+        <v>0.833143866415879</v>
       </c>
       <c r="C48" t="s">
         <v>75</v>
@@ -5329,7 +5329,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.730600623963842</v>
+        <v>0.731418590389621</v>
       </c>
       <c r="C49" t="s">
         <v>75</v>
@@ -5343,7 +5343,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.648434620403699</v>
+        <v>0.645889152605502</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
@@ -5357,7 +5357,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.708771111843533</v>
+        <v>0.711311366029727</v>
       </c>
       <c r="C51" t="s">
         <v>75</v>
@@ -5371,7 +5371,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.64360876870021</v>
+        <v>0.64030215090932</v>
       </c>
       <c r="C52" t="s">
         <v>75</v>
@@ -5385,7 +5385,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>0.820647450164315</v>
+        <v>0.820839745378135</v>
       </c>
       <c r="C53" t="s">
         <v>75</v>
@@ -5399,7 +5399,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>0.864875962724876</v>
+        <v>0.868480501238483</v>
       </c>
       <c r="C54" t="s">
         <v>75</v>
@@ -5413,7 +5413,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>0.831242855107634</v>
+        <v>0.834620311988557</v>
       </c>
       <c r="C55" t="s">
         <v>75</v>
@@ -5427,7 +5427,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>0.696939380465392</v>
+        <v>0.696013042833852</v>
       </c>
       <c r="C56" t="s">
         <v>75</v>
@@ -5441,7 +5441,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>0.926856380613606</v>
+        <v>0.92926485845561</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
@@ -5455,7 +5455,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>0.882478888690069</v>
+        <v>0.880019258901247</v>
       </c>
       <c r="C58" t="s">
         <v>75</v>
@@ -5469,7 +5469,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>0.968246179426304</v>
+        <v>0.968738105384068</v>
       </c>
       <c r="C59" t="s">
         <v>75</v>
@@ -5483,7 +5483,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>0.829951711163542</v>
+        <v>0.844163340750576</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
@@ -5497,7 +5497,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>0.911414175574156</v>
+        <v>0.910036875669734</v>
       </c>
       <c r="C61" t="s">
         <v>75</v>
@@ -5511,7 +5511,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>0.957022979415507</v>
+        <v>0.95667207498126</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
@@ -5525,7 +5525,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>0.78026243292985</v>
+        <v>0.772939734930859</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
@@ -5539,7 +5539,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>0.767487471327587</v>
+        <v>0.768374867712616</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
@@ -5553,7 +5553,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>0.791801899910646</v>
+        <v>0.793822879136475</v>
       </c>
       <c r="C65" t="s">
         <v>75</v>
@@ -5567,7 +5567,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>0.686933777839917</v>
+        <v>0.688498655193916</v>
       </c>
       <c r="C66" t="s">
         <v>75</v>
@@ -5581,7 +5581,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>0.759614988880064</v>
+        <v>0.767997793651211</v>
       </c>
       <c r="C67" t="s">
         <v>75</v>
@@ -7471,7 +7471,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.940108632973675</v>
+        <v>0.94292622787669</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
@@ -7485,7 +7485,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.510119193503174</v>
+        <v>0.507426974222548</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
@@ -7499,7 +7499,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.566518614181605</v>
+        <v>0.563252232611548</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
@@ -7513,7 +7513,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.629397177424926</v>
+        <v>0.632787350674411</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -7527,7 +7527,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.966373548104317</v>
+        <v>0.942949918371267</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -7541,7 +7541,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.963376113101388</v>
+        <v>0.969379221485963</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -7555,7 +7555,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.999951081681851</v>
+        <v>0.997599154902526</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -7569,7 +7569,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.498226466375505</v>
+        <v>0.497863247863248</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
@@ -7583,7 +7583,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.858082455738706</v>
+        <v>0.852309627161989</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
@@ -7597,7 +7597,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.985258464825773</v>
+        <v>0.981008984453866</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
@@ -7611,7 +7611,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.686531846943778</v>
+        <v>0.684311403507767</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -7625,7 +7625,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.835184503272582</v>
+        <v>0.837719970599425</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
@@ -7639,7 +7639,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.659138326069118</v>
+        <v>0.660530751716606</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
@@ -7653,7 +7653,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.875666831286517</v>
+        <v>0.868852202584241</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
@@ -7667,7 +7667,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.979709292641271</v>
+        <v>0.95264255115631</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -7681,7 +7681,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.946586665813667</v>
+        <v>0.945384661166526</v>
       </c>
       <c r="C17" t="s">
         <v>75</v>
@@ -7695,7 +7695,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.894772356962582</v>
+        <v>0.884813034581416</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -7709,7 +7709,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.918620433783304</v>
+        <v>0.939306852922361</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -7723,7 +7723,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.536266732185995</v>
+        <v>0.540507993848713</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
@@ -7737,7 +7737,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.831283506359443</v>
+        <v>0.837888490999436</v>
       </c>
       <c r="C21" t="s">
         <v>75</v>
@@ -7751,7 +7751,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.658970154041016</v>
+        <v>0.649647722535504</v>
       </c>
       <c r="C22" t="s">
         <v>75</v>
@@ -7765,7 +7765,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.672586950606614</v>
+        <v>0.978212330740421</v>
       </c>
       <c r="C23" t="s">
         <v>75</v>
@@ -7779,7 +7779,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.772755009763437</v>
+        <v>0.986745334357694</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -7793,7 +7793,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.896238475943532</v>
+        <v>0.999899964787605</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
@@ -7807,7 +7807,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.549589053772125</v>
+        <v>0.717080136617538</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -7821,7 +7821,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.68142729154048</v>
+        <v>0.913583518406353</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -7835,7 +7835,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.928773176189515</v>
+        <v>0.985110034322633</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -7849,7 +7849,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.730641827259631</v>
+        <v>0.727678626327416</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -7863,7 +7863,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.85170790973385</v>
+        <v>0.86156783767143</v>
       </c>
       <c r="C30" t="s">
         <v>75</v>
@@ -7877,7 +7877,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.68291344023771</v>
+        <v>0.681582883200999</v>
       </c>
       <c r="C31" t="s">
         <v>75</v>
@@ -7891,7 +7891,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.870626011182851</v>
+        <v>0.869203655637837</v>
       </c>
       <c r="C32" t="s">
         <v>75</v>
@@ -7905,7 +7905,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.965603607692599</v>
+        <v>0.959183038475573</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
@@ -7919,7 +7919,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.928591120472591</v>
+        <v>0.916882460491824</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
@@ -7933,7 +7933,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.916196174627199</v>
+        <v>0.915819727046131</v>
       </c>
       <c r="C35" t="s">
         <v>75</v>
@@ -7947,7 +7947,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.941236833213947</v>
+        <v>0.949663830728065</v>
       </c>
       <c r="C36" t="s">
         <v>75</v>
@@ -7961,7 +7961,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.707452173508471</v>
+        <v>0.522856321381734</v>
       </c>
       <c r="C37" t="s">
         <v>75</v>
@@ -7975,7 +7975,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.651750399445622</v>
+        <v>0.75842028468168</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
@@ -7989,7 +7989,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.642925717484076</v>
+        <v>0.651383389189115</v>
       </c>
       <c r="C39" t="s">
         <v>75</v>
@@ -8003,7 +8003,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.973124276008891</v>
+        <v>0.979192675821889</v>
       </c>
       <c r="C40" t="s">
         <v>75</v>
@@ -8017,7 +8017,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.97535495131649</v>
+        <v>0.987845721694036</v>
       </c>
       <c r="C41" t="s">
         <v>75</v>
@@ -8031,7 +8031,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0.996698837990973</v>
       </c>
       <c r="C42" t="s">
         <v>75</v>
@@ -8045,7 +8045,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.488038411315655</v>
+        <v>0.701757773066828</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -8059,7 +8059,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.873535212901729</v>
+        <v>0.869060838549027</v>
       </c>
       <c r="C44" t="s">
         <v>75</v>
@@ -8073,7 +8073,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.987364398422091</v>
+        <v>0.988948196379299</v>
       </c>
       <c r="C45" t="s">
         <v>75</v>
@@ -8087,7 +8087,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.686507930142853</v>
+        <v>0.699528544818522</v>
       </c>
       <c r="C46" t="s">
         <v>75</v>
@@ -8101,7 +8101,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>0.836649299918479</v>
+        <v>0.833609717985304</v>
       </c>
       <c r="C47" t="s">
         <v>75</v>
@@ -8115,7 +8115,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.658971051677017</v>
+        <v>0.649149982573675</v>
       </c>
       <c r="C48" t="s">
         <v>75</v>
@@ -8129,7 +8129,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.862575116276677</v>
+        <v>0.888558277314752</v>
       </c>
       <c r="C49" t="s">
         <v>75</v>
@@ -8143,7 +8143,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.959459080145443</v>
+        <v>0.976917015508076</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
@@ -8157,7 +8157,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.946650046557778</v>
+        <v>0.953443772104618</v>
       </c>
       <c r="C51" t="s">
         <v>75</v>
@@ -8171,7 +8171,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.907357808840098</v>
+        <v>0.901197256164696</v>
       </c>
       <c r="C52" t="s">
         <v>75</v>
@@ -8213,7 +8213,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.831669697636606</v>
+        <v>0.835696353322316</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
@@ -8227,7 +8227,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.797973295912972</v>
+        <v>0.826337690444139</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -8241,7 +8241,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.848785609043302</v>
+        <v>0.873157236570164</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
@@ -8255,7 +8255,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.85827465522312</v>
+        <v>0.843129560508129</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -8269,7 +8269,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.722005731117577</v>
+        <v>0.717530884303535</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -8283,7 +8283,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.804379628337696</v>
+        <v>0.791743349860817</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
@@ -8297,7 +8297,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.698436180597983</v>
+        <v>0.711070668407591</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
@@ -8311,7 +8311,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.833463763374912</v>
+        <v>0.799888073614426</v>
       </c>
       <c r="C9" t="s">
         <v>76</v>
@@ -8325,7 +8325,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.944991408936609</v>
+        <v>0.916500795583598</v>
       </c>
       <c r="C10" t="s">
         <v>76</v>
@@ -8339,7 +8339,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.923312178795552</v>
+        <v>0.88952189066696</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
@@ -8353,7 +8353,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.873479655019903</v>
+        <v>0.719648385670057</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -8367,7 +8367,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.839267285861713</v>
+        <v>0.874014079315937</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -8381,7 +8381,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.96674108159825</v>
+        <v>0.82313664931384</v>
       </c>
       <c r="C14" t="s">
         <v>76</v>
@@ -8395,7 +8395,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.96674108159825</v>
+        <v>0.982747085948047</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
@@ -8409,7 +8409,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.917426476191027</v>
+        <v>0.482451799960068</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
@@ -8423,7 +8423,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.546747455807588</v>
+        <v>0.735187934099364</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
@@ -8437,7 +8437,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.981326674209301</v>
+        <v>0.986679822873474</v>
       </c>
       <c r="C18" t="s">
         <v>76</v>
@@ -8451,7 +8451,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.810681468359097</v>
+        <v>0.800841912389779</v>
       </c>
       <c r="C19" t="s">
         <v>76</v>
@@ -8465,7 +8465,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.758957016551962</v>
+        <v>0.76516453883041</v>
       </c>
       <c r="C20" t="s">
         <v>76</v>
@@ -8479,7 +8479,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.777432916213208</v>
+        <v>0.786783195595118</v>
       </c>
       <c r="C21" t="s">
         <v>76</v>
@@ -8493,7 +8493,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.715381338040536</v>
+        <v>0.716455226901882</v>
       </c>
       <c r="C22" t="s">
         <v>76</v>
@@ -8507,7 +8507,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.876376265652316</v>
+        <v>0.857990717600738</v>
       </c>
       <c r="C23" t="s">
         <v>76</v>
@@ -8521,7 +8521,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.859439132812666</v>
+        <v>0.850336810922665</v>
       </c>
       <c r="C24" t="s">
         <v>76</v>
@@ -8535,7 +8535,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.805398287976802</v>
+        <v>0.820871385349944</v>
       </c>
       <c r="C25" t="s">
         <v>76</v>
@@ -8549,7 +8549,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.890140114355138</v>
+        <v>0.887180064511991</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -8563,7 +8563,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.86711301614627</v>
+        <v>0.854672669621444</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
@@ -8577,7 +8577,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.730388949712456</v>
+        <v>0.75095848109067</v>
       </c>
       <c r="C28" t="s">
         <v>76</v>
@@ -8591,7 +8591,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.801505453881354</v>
+        <v>0.799162595985394</v>
       </c>
       <c r="C29" t="s">
         <v>76</v>
@@ -8605,7 +8605,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.678112976820416</v>
+        <v>0.709742146777988</v>
       </c>
       <c r="C30" t="s">
         <v>76</v>
@@ -8619,7 +8619,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.813872282106485</v>
+        <v>0.829868983055512</v>
       </c>
       <c r="C31" t="s">
         <v>76</v>
@@ -8633,7 +8633,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.917719237009987</v>
+        <v>0.896767245815522</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
@@ -8647,7 +8647,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.884881078567449</v>
+        <v>0.865467355840451</v>
       </c>
       <c r="C33" t="s">
         <v>76</v>
@@ -8661,7 +8661,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.803435487572352</v>
+        <v>0.763922674332891</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
@@ -8675,7 +8675,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.950193079727903</v>
+        <v>0.906199321833997</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
@@ -8689,7 +8689,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.984323707350293</v>
+        <v>0.947366023149358</v>
       </c>
       <c r="C36" t="s">
         <v>76</v>
@@ -8703,7 +8703,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.991457469588592</v>
+        <v>0.987363049749299</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
@@ -8717,7 +8717,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.764557911905499</v>
+        <v>0.530205744169649</v>
       </c>
       <c r="C38" t="s">
         <v>76</v>
@@ -8731,7 +8731,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.752684531715236</v>
+        <v>0.898724214461603</v>
       </c>
       <c r="C39" t="s">
         <v>76</v>
@@ -8745,7 +8745,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.984374593088362</v>
+        <v>0.997540445208353</v>
       </c>
       <c r="C40" t="s">
         <v>76</v>
@@ -8759,7 +8759,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.833776046382029</v>
+        <v>0.813530620030152</v>
       </c>
       <c r="C41" t="s">
         <v>76</v>
@@ -8773,7 +8773,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.780990795060871</v>
+        <v>0.778293156597177</v>
       </c>
       <c r="C42" t="s">
         <v>76</v>
@@ -8787,7 +8787,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.81352546328476</v>
+        <v>0.799590246641392</v>
       </c>
       <c r="C43" t="s">
         <v>76</v>
@@ -8801,7 +8801,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.739708538022738</v>
+        <v>0.745054902365116</v>
       </c>
       <c r="C44" t="s">
         <v>76</v>
@@ -8815,7 +8815,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.887898494165178</v>
+        <v>0.865110032403781</v>
       </c>
       <c r="C45" t="s">
         <v>76</v>
@@ -8829,7 +8829,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.840999259166886</v>
+        <v>0.83357523072449</v>
       </c>
       <c r="C46" t="s">
         <v>76</v>
@@ -8843,7 +8843,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>0.831153172317932</v>
+        <v>0.820340832314864</v>
       </c>
       <c r="C47" t="s">
         <v>76</v>
@@ -8857,7 +8857,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.879622691494146</v>
+        <v>0.84332542023815</v>
       </c>
       <c r="C48" t="s">
         <v>76</v>
@@ -8871,7 +8871,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.859646172775542</v>
+        <v>0.825947214487811</v>
       </c>
       <c r="C49" t="s">
         <v>76</v>
@@ -8885,7 +8885,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.724288811423827</v>
+        <v>0.722521371665046</v>
       </c>
       <c r="C50" t="s">
         <v>76</v>
@@ -8899,7 +8899,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.80145367801625</v>
+        <v>0.79651614324405</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
@@ -8913,7 +8913,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.715812866961444</v>
+        <v>0.709199676918602</v>
       </c>
       <c r="C52" t="s">
         <v>76</v>
@@ -8927,7 +8927,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>0.821419204274748</v>
+        <v>0.833575951839581</v>
       </c>
       <c r="C53" t="s">
         <v>76</v>
@@ -8941,7 +8941,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>0.929478137442406</v>
+        <v>0.925699973019435</v>
       </c>
       <c r="C54" t="s">
         <v>76</v>
@@ -8955,7 +8955,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>0.902674086063797</v>
+        <v>0.903336426839177</v>
       </c>
       <c r="C55" t="s">
         <v>76</v>
@@ -8969,7 +8969,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>0.72609833407047</v>
+        <v>0.708720330237358</v>
       </c>
       <c r="C56" t="s">
         <v>76</v>
@@ -8983,7 +8983,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>0.873138729175881</v>
+        <v>0.861943461595164</v>
       </c>
       <c r="C57" t="s">
         <v>76</v>
@@ -8997,7 +8997,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>0.937174934237503</v>
+        <v>0.888929120377142</v>
       </c>
       <c r="C58" t="s">
         <v>76</v>
@@ -9011,7 +9011,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>0.981877846011447</v>
+        <v>0.980708868165676</v>
       </c>
       <c r="C59" t="s">
         <v>76</v>
@@ -9025,7 +9025,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>0.620997074576595</v>
+        <v>0.505214738423937</v>
       </c>
       <c r="C60" t="s">
         <v>76</v>
@@ -9039,7 +9039,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>0.606095307265911</v>
+        <v>0.757401089727452</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
@@ -9053,7 +9053,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>0.986920955696184</v>
+        <v>0.987644354164316</v>
       </c>
       <c r="C62" t="s">
         <v>76</v>
@@ -9067,7 +9067,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>0.810544598578513</v>
+        <v>0.799100275824</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
@@ -9081,7 +9081,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>0.769022492505152</v>
+        <v>0.766988632404688</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
@@ -9095,7 +9095,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>0.789573118625766</v>
+        <v>0.783750756486416</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
@@ -9109,7 +9109,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>0.720205897561886</v>
+        <v>0.709241291131884</v>
       </c>
       <c r="C66" t="s">
         <v>76</v>
@@ -9123,7 +9123,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>0.873705305687475</v>
+        <v>0.848154327037872</v>
       </c>
       <c r="C67" t="s">
         <v>76</v>
@@ -9165,7 +9165,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.865700314572233</v>
+        <v>0.869868088384587</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -9179,7 +9179,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.726379579868236</v>
+        <v>0.739386077039921</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -9193,7 +9193,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.855532351385286</v>
+        <v>0.859937133877814</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -9207,7 +9207,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.624443747732778</v>
+        <v>0.62377946609517</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -9221,7 +9221,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.570028166882064</v>
+        <v>0.566252024220451</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -9235,7 +9235,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.599939555652649</v>
+        <v>0.595278225173311</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -9249,7 +9249,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.577284376869193</v>
+        <v>0.57709634492874</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -9263,7 +9263,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.702660190944216</v>
+        <v>0.70892075460294</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -9277,7 +9277,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.764028260272109</v>
+        <v>0.76714591999732</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -9291,7 +9291,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.729459322266366</v>
+        <v>0.726156304687755</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -9305,7 +9305,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.91601795102681</v>
+        <v>0.58499143114416</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -9319,7 +9319,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.863043541406454</v>
+        <v>0.860320388067505</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -9333,7 +9333,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9077861308268</v>
+        <v>0.703799700678505</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -9347,7 +9347,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.933671571363135</v>
+        <v>0.930984209519744</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -9361,7 +9361,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.54828364584955</v>
+        <v>0.520886503097282</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -9375,7 +9375,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.824558583326678</v>
+        <v>0.853235763297387</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -9389,7 +9389,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.944364895452509</v>
+        <v>0.950382289331255</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -9403,7 +9403,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.664831571648404</v>
+        <v>0.68353443177864</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -9417,7 +9417,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.716526793246226</v>
+        <v>0.722216678122745</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -9431,7 +9431,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.734315847587522</v>
+        <v>0.741423080521804</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -9445,7 +9445,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.612118262618346</v>
+        <v>0.607068683032488</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -9459,7 +9459,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.630646973681205</v>
+        <v>0.620946399606459</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -9473,7 +9473,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.884581268747244</v>
+        <v>0.885347755462894</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -9487,7 +9487,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.773254168356615</v>
+        <v>0.77669732014561</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -9501,7 +9501,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.860269704009091</v>
+        <v>0.843315504633369</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -9515,7 +9515,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.666583846012606</v>
+        <v>0.675342320259404</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -9529,7 +9529,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.604906127460376</v>
+        <v>0.605764085344688</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -9543,7 +9543,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.653787408145335</v>
+        <v>0.64985537468931</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -9557,7 +9557,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.586641172342011</v>
+        <v>0.58751984396851</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -9571,7 +9571,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.766290171388535</v>
+        <v>0.780036093598029</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -9585,7 +9585,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.834082290676531</v>
+        <v>0.833486347044847</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -9599,7 +9599,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.791507182060658</v>
+        <v>0.784159915339821</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -9613,7 +9613,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.637832224707352</v>
+        <v>0.636459029250298</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -9627,7 +9627,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8388256310454</v>
+        <v>0.841548784384349</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -9655,7 +9655,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.943926929787912</v>
+        <v>0.94754221477902</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -9669,7 +9669,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.648747526743662</v>
+        <v>0.639480740170394</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -9683,7 +9683,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.868709061842734</v>
+        <v>0.868528540026372</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -9697,7 +9697,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.941786012361618</v>
+        <v>0.937977861664069</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -9711,7 +9711,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.74083686028517</v>
+        <v>0.731714468336216</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -9725,7 +9725,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.755162620343787</v>
+        <v>0.749124779934529</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -9739,7 +9739,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.78081377998056</v>
+        <v>0.777436987480547</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -9753,7 +9753,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.648724778535037</v>
+        <v>0.644832613977663</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -9767,7 +9767,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.713639342594794</v>
+        <v>0.72302538309105</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -9781,7 +9781,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.836236529734396</v>
+        <v>0.842666608223501</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -9795,7 +9795,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>0.697717850614574</v>
+        <v>0.693573768086574</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -9809,7 +9809,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.799956614045398</v>
+        <v>0.763283809631859</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -9823,7 +9823,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.609619015649932</v>
+        <v>0.613136822329577</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -9837,7 +9837,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.588213913516795</v>
+        <v>0.586221347357542</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -9851,7 +9851,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.631310487015493</v>
+        <v>0.63473346983638</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -9865,7 +9865,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5729925475822</v>
+        <v>0.582527671275176</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -9879,7 +9879,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>0.759424948835737</v>
+        <v>0.763149220875903</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -9893,7 +9893,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>0.797281494183292</v>
+        <v>0.81282342836475</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -9907,7 +9907,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>0.75218752447364</v>
+        <v>0.763134344824583</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -9921,7 +9921,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>0.582869308004376</v>
+        <v>0.588168443372934</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -9935,7 +9935,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>0.865633078688239</v>
+        <v>0.877421791036105</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -9949,7 +9949,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>0.600704245465318</v>
+        <v>0.583350696743749</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -9963,7 +9963,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>0.926465103280859</v>
+        <v>0.928875293274931</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -9977,7 +9977,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>0.714268349806236</v>
+        <v>0.75749902668654</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -9991,7 +9991,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>0.874236467934211</v>
+        <v>0.855754472449491</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -10005,7 +10005,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>0.926312713816271</v>
+        <v>0.929751224604126</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -10019,7 +10019,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>0.662218986954261</v>
+        <v>0.655729363987417</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -10033,7 +10033,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7252627121346</v>
+        <v>0.728375497044247</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -10047,7 +10047,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>0.750351342661443</v>
+        <v>0.756673203946401</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -10061,7 +10061,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>0.641312552819332</v>
+        <v>0.646285195604018</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -10075,7 +10075,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>0.616813142053172</v>
+        <v>0.641594066263529</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -10117,7 +10117,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.942980782709084</v>
+        <v>0.94310038382607</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
@@ -10131,7 +10131,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.892988557538981</v>
+        <v>0.893253070867008</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -10145,7 +10145,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.935228258389545</v>
+        <v>0.934517644655544</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
@@ -10159,7 +10159,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.762791684881059</v>
+        <v>0.762774435905215</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -10173,7 +10173,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.628113458643381</v>
+        <v>0.62849429375377</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -10187,7 +10187,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.689406856570834</v>
+        <v>0.687955830505305</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
@@ -10201,7 +10201,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.647873258493711</v>
+        <v>0.646423655609397</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
@@ -10215,7 +10215,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.772367296172845</v>
+        <v>0.774284667343184</v>
       </c>
       <c r="C9" t="s">
         <v>76</v>
@@ -10229,7 +10229,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.841047994194157</v>
+        <v>0.842197346706427</v>
       </c>
       <c r="C10" t="s">
         <v>76</v>
@@ -10243,7 +10243,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.821707301384985</v>
+        <v>0.822412682455777</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
@@ -10257,7 +10257,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.979654700334652</v>
+        <v>0.770354806814725</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -10271,7 +10271,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.940266580468512</v>
+        <v>0.94078947368421</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -10285,7 +10285,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.971007761135254</v>
+        <v>0.954296518533197</v>
       </c>
       <c r="C14" t="s">
         <v>76</v>
@@ -10299,7 +10299,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.982095998768114</v>
+        <v>0.973437454640462</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
@@ -10313,7 +10313,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.749667546905823</v>
+        <v>0.737062690254555</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
@@ -10327,7 +10327,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.912711367689971</v>
+        <v>0.921804871416957</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
@@ -10341,7 +10341,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.964580352809938</v>
+        <v>0.965705786439515</v>
       </c>
       <c r="C18" t="s">
         <v>76</v>
@@ -10355,7 +10355,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.834032758795653</v>
+        <v>0.836241943435893</v>
       </c>
       <c r="C19" t="s">
         <v>76</v>
@@ -10369,7 +10369,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.755723253978623</v>
+        <v>0.756941622280679</v>
       </c>
       <c r="C20" t="s">
         <v>76</v>
@@ -10383,7 +10383,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.77520542669293</v>
+        <v>0.777030627277504</v>
       </c>
       <c r="C21" t="s">
         <v>76</v>
@@ -10397,7 +10397,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.670178729643448</v>
+        <v>0.664664280481899</v>
       </c>
       <c r="C22" t="s">
         <v>76</v>
@@ -10411,7 +10411,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.749557308690104</v>
+        <v>0.747048612676714</v>
       </c>
       <c r="C23" t="s">
         <v>76</v>
@@ -10425,7 +10425,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.944687402531041</v>
+        <v>0.942438012506996</v>
       </c>
       <c r="C24" t="s">
         <v>76</v>
@@ -10439,7 +10439,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.896510795922914</v>
+        <v>0.888779881909722</v>
       </c>
       <c r="C25" t="s">
         <v>76</v>
@@ -10453,7 +10453,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.920759625200138</v>
+        <v>0.908540462060607</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -10467,7 +10467,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.792591405182696</v>
+        <v>0.790447380588965</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
@@ -10481,7 +10481,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.675388235126954</v>
+        <v>0.673660078323094</v>
       </c>
       <c r="C28" t="s">
         <v>76</v>
@@ -10495,7 +10495,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.766426398842754</v>
+        <v>0.767188178933068</v>
       </c>
       <c r="C29" t="s">
         <v>76</v>
@@ -10509,7 +10509,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.682173039585064</v>
+        <v>0.682245229936583</v>
       </c>
       <c r="C30" t="s">
         <v>76</v>
@@ -10523,7 +10523,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.858439839658478</v>
+        <v>0.86155598093507</v>
       </c>
       <c r="C31" t="s">
         <v>76</v>
@@ -10537,7 +10537,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.890000999840683</v>
+        <v>0.888107078420355</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
@@ -10551,7 +10551,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.871125210129039</v>
+        <v>0.870441862380405</v>
       </c>
       <c r="C33" t="s">
         <v>76</v>
@@ -10565,7 +10565,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.799722391238211</v>
+        <v>0.805749923942805</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
@@ -10579,7 +10579,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.93599787039854</v>
+        <v>0.934476726498327</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
@@ -10593,7 +10593,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.974018056724824</v>
+        <v>0.972314115825067</v>
       </c>
       <c r="C36" t="s">
         <v>76</v>
@@ -10607,7 +10607,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.974541860779193</v>
+        <v>0.974983623234686</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
@@ -10621,7 +10621,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.829771410924629</v>
+        <v>0.852856305534522</v>
       </c>
       <c r="C38" t="s">
         <v>76</v>
@@ -10635,7 +10635,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.951507315768766</v>
+        <v>0.95389323506347</v>
       </c>
       <c r="C39" t="s">
         <v>76</v>
@@ -10663,7 +10663,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.842063426762479</v>
+        <v>0.839239857159212</v>
       </c>
       <c r="C41" t="s">
         <v>76</v>
@@ -10677,7 +10677,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.80264519279865</v>
+        <v>0.795880468998793</v>
       </c>
       <c r="C42" t="s">
         <v>76</v>
@@ -10691,7 +10691,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.818804016842052</v>
+        <v>0.81331743238014</v>
       </c>
       <c r="C43" t="s">
         <v>76</v>
@@ -10705,7 +10705,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.712690031681724</v>
+        <v>0.701030474875169</v>
       </c>
       <c r="C44" t="s">
         <v>76</v>
@@ -10719,7 +10719,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.79883448159039</v>
+        <v>0.793235011636082</v>
       </c>
       <c r="C45" t="s">
         <v>76</v>
@@ -10733,7 +10733,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.932399114476352</v>
+        <v>0.929031551685482</v>
       </c>
       <c r="C46" t="s">
         <v>76</v>
@@ -10747,7 +10747,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>0.863548316069928</v>
+        <v>0.868783029955415</v>
       </c>
       <c r="C47" t="s">
         <v>76</v>
@@ -10761,7 +10761,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.880068991939659</v>
+        <v>0.859050874408428</v>
       </c>
       <c r="C48" t="s">
         <v>76</v>
@@ -10775,7 +10775,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.779906653026379</v>
+        <v>0.779612562442116</v>
       </c>
       <c r="C49" t="s">
         <v>76</v>
@@ -10789,7 +10789,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.677811711062587</v>
+        <v>0.675656175918949</v>
       </c>
       <c r="C50" t="s">
         <v>76</v>
@@ -10803,7 +10803,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.745285282518659</v>
+        <v>0.745503228627531</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
@@ -10817,7 +10817,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.674661616321345</v>
+        <v>0.670629596119047</v>
       </c>
       <c r="C52" t="s">
         <v>76</v>
@@ -10831,7 +10831,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>0.841762031212939</v>
+        <v>0.842354232566956</v>
       </c>
       <c r="C53" t="s">
         <v>76</v>
@@ -10845,7 +10845,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>0.882938533184772</v>
+        <v>0.885720712249802</v>
       </c>
       <c r="C54" t="s">
         <v>76</v>
@@ -10859,7 +10859,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>0.859094149062318</v>
+        <v>0.859246416630324</v>
       </c>
       <c r="C55" t="s">
         <v>76</v>
@@ -10873,7 +10873,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>0.771961515059325</v>
+        <v>0.771438621843626</v>
       </c>
       <c r="C56" t="s">
         <v>76</v>
@@ -10887,7 +10887,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>0.94439268329784</v>
+        <v>0.945723684210526</v>
       </c>
       <c r="C57" t="s">
         <v>76</v>
@@ -10901,7 +10901,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>0.934322544652718</v>
+        <v>0.933060366208454</v>
       </c>
       <c r="C58" t="s">
         <v>76</v>
@@ -10915,7 +10915,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>0.972964137723863</v>
+        <v>0.973216573412716</v>
       </c>
       <c r="C59" t="s">
         <v>76</v>
@@ -10929,7 +10929,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>0.880523965884055</v>
+        <v>0.888221931910365</v>
       </c>
       <c r="C60" t="s">
         <v>76</v>
@@ -10943,7 +10943,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>0.927335027185975</v>
+        <v>0.931375559002884</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
@@ -10957,7 +10957,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>0.961834294753769</v>
+        <v>0.961654225373036</v>
       </c>
       <c r="C62" t="s">
         <v>76</v>
@@ -10971,7 +10971,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>0.817721828970772</v>
+        <v>0.812831832523614</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
@@ -10985,7 +10985,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>0.777990767006672</v>
+        <v>0.779169117457999</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
@@ -10999,7 +10999,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>0.803838915903527</v>
+        <v>0.804655841117893</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
@@ -11013,7 +11013,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>0.706645713918739</v>
+        <v>0.707005383491349</v>
       </c>
       <c r="C66" t="s">
         <v>76</v>
@@ -11027,7 +11027,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>0.801928824428155</v>
+        <v>0.805398732888113</v>
       </c>
       <c r="C67" t="s">
         <v>76</v>
@@ -12917,7 +12917,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.961674790864303</v>
+        <v>0.963479336158918</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
@@ -12931,7 +12931,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.520770976138095</v>
+        <v>0.51524484182523</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -12945,7 +12945,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.629736048710963</v>
+        <v>0.620662171355989</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
@@ -12959,7 +12959,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.685401143915423</v>
+        <v>0.685603096883346</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -12973,7 +12973,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.977313772725906</v>
+        <v>0.965241844076483</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -12987,7 +12987,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.975167538386227</v>
+        <v>0.975611283592877</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
@@ -13001,7 +13001,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.999974897178844</v>
+        <v>0.998767987384191</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
@@ -13015,7 +13015,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.50526104925776</v>
+        <v>0.493072463392734</v>
       </c>
       <c r="C9" t="s">
         <v>76</v>
@@ -13029,7 +13029,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.892828525641026</v>
+        <v>0.883152455449648</v>
       </c>
       <c r="C10" t="s">
         <v>76</v>
@@ -13043,7 +13043,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.98864824586211</v>
+        <v>0.984772154303081</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
@@ -13057,7 +13057,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.725146947900226</v>
+        <v>0.722083818508467</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -13071,7 +13071,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.865891374180598</v>
+        <v>0.866745509748891</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -13085,7 +13085,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.696578121910904</v>
+        <v>0.697508362101534</v>
       </c>
       <c r="C14" t="s">
         <v>76</v>
@@ -13099,7 +13099,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.902440525541112</v>
+        <v>0.895439071268161</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
@@ -13113,7 +13113,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.985689355526137</v>
+        <v>0.962754201244659</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
@@ -13127,7 +13127,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.963356146782401</v>
+        <v>0.960090696148932</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
@@ -13141,7 +13141,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.925598659671197</v>
+        <v>0.917558926228454</v>
       </c>
       <c r="C18" t="s">
         <v>76</v>
@@ -13155,7 +13155,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.937773187928143</v>
+        <v>0.959223869170513</v>
       </c>
       <c r="C19" t="s">
         <v>76</v>
@@ -13169,7 +13169,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5744422397502</v>
+        <v>0.583147987373673</v>
       </c>
       <c r="C20" t="s">
         <v>76</v>
@@ -13183,7 +13183,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.859167863458088</v>
+        <v>0.858590177630699</v>
       </c>
       <c r="C21" t="s">
         <v>76</v>
@@ -13197,7 +13197,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.672448102609033</v>
+        <v>0.668368387535069</v>
       </c>
       <c r="C22" t="s">
         <v>76</v>
@@ -13211,7 +13211,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.759100466522111</v>
+        <v>0.984009502923977</v>
       </c>
       <c r="C23" t="s">
         <v>76</v>
@@ -13225,7 +13225,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.857297005388002</v>
+        <v>0.993198263683553</v>
       </c>
       <c r="C24" t="s">
         <v>76</v>
@@ -13239,7 +13239,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.946753954760497</v>
+        <v>0.999948666141008</v>
       </c>
       <c r="C25" t="s">
         <v>76</v>
@@ -13253,7 +13253,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.576499149571764</v>
+        <v>0.765884013675922</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -13267,7 +13267,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.76808562992126</v>
+        <v>0.940621114794861</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
@@ -13281,7 +13281,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.957966936904268</v>
+        <v>0.986876640419947</v>
       </c>
       <c r="C28" t="s">
         <v>76</v>
@@ -13295,7 +13295,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.763087421203299</v>
+        <v>0.762415218144199</v>
       </c>
       <c r="C29" t="s">
         <v>76</v>
@@ -13309,7 +13309,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.878156564963716</v>
+        <v>0.886699880422327</v>
       </c>
       <c r="C30" t="s">
         <v>76</v>
@@ -13323,7 +13323,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.717729588897071</v>
+        <v>0.715862314626778</v>
       </c>
       <c r="C31" t="s">
         <v>76</v>
@@ -13337,7 +13337,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.901690875140794</v>
+        <v>0.904649901162672</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
@@ -13351,7 +13351,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.973446741652886</v>
+        <v>0.972103399394971</v>
       </c>
       <c r="C33" t="s">
         <v>76</v>
@@ -13365,7 +13365,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.945701442834987</v>
+        <v>0.945341356899268</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
@@ -13379,7 +13379,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.93498521857214</v>
+        <v>0.93652017632758</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
@@ -13393,7 +13393,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.958523998515372</v>
+        <v>0.967148621207994</v>
       </c>
       <c r="C36" t="s">
         <v>76</v>
@@ -13407,7 +13407,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.744755098172449</v>
+        <v>0.546915607046718</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
@@ -13421,7 +13421,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.675680587183875</v>
+        <v>0.803403147624095</v>
       </c>
       <c r="C38" t="s">
         <v>76</v>
@@ -13435,7 +13435,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.690156774920958</v>
+        <v>0.674881589841323</v>
       </c>
       <c r="C39" t="s">
         <v>76</v>
@@ -13449,7 +13449,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.981324376229736</v>
+        <v>0.989322557329654</v>
       </c>
       <c r="C40" t="s">
         <v>76</v>
@@ -13463,7 +13463,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.980609592714544</v>
+        <v>0.993762936132466</v>
       </c>
       <c r="C41" t="s">
         <v>76</v>
@@ -13477,7 +13477,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0.998305982653262</v>
       </c>
       <c r="C42" t="s">
         <v>76</v>
@@ -13491,7 +13491,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.494190705128205</v>
+        <v>0.750603874687614</v>
       </c>
       <c r="C43" t="s">
         <v>76</v>
@@ -13505,7 +13505,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.896650430161943</v>
+        <v>0.894430342588755</v>
       </c>
       <c r="C44" t="s">
         <v>76</v>
@@ -13519,7 +13519,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.989288582555888</v>
+        <v>0.988846223580605</v>
       </c>
       <c r="C45" t="s">
         <v>76</v>
@@ -13533,7 +13533,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.724051825248841</v>
+        <v>0.740207824020296</v>
       </c>
       <c r="C46" t="s">
         <v>76</v>
@@ -13547,7 +13547,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>0.86545983157531</v>
+        <v>0.861844393845649</v>
       </c>
       <c r="C47" t="s">
         <v>76</v>
@@ -13561,7 +13561,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.695909715917188</v>
+        <v>0.683918754912178</v>
       </c>
       <c r="C48" t="s">
         <v>76</v>
@@ -13575,7 +13575,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.88750814773981</v>
+        <v>0.91874857942865</v>
       </c>
       <c r="C49" t="s">
         <v>76</v>
@@ -13589,7 +13589,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.96800121172818</v>
+        <v>0.983685068758502</v>
       </c>
       <c r="C50" t="s">
         <v>76</v>
@@ -13603,7 +13603,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.95910499511559</v>
+        <v>0.969210804848625</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
@@ -13617,7 +13617,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.929206271806628</v>
+        <v>0.924300928252629</v>
       </c>
       <c r="C52" t="s">
         <v>76</v>
@@ -13659,7 +13659,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.867254809750508</v>
+        <v>0.864016136961805</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -13673,7 +13673,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.850944482453805</v>
+        <v>0.853027749071063</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -13687,7 +13687,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.868676537910884</v>
+        <v>0.894874756068377</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -13701,7 +13701,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8592696032623</v>
+        <v>0.870009544064194</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -13715,7 +13715,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.521689530363383</v>
+        <v>0.529425139053281</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -13729,7 +13729,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.758970080447613</v>
+        <v>0.750196474081407</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -13743,7 +13743,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.524659991507558</v>
+        <v>0.52685633595043</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -13771,7 +13771,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.928354684969151</v>
+        <v>0.937841954929304</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
@@ -13785,7 +13785,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.904162182651505</v>
+        <v>0.90602988719895</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -13799,7 +13799,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.833858469677564</v>
+        <v>0.619125042190284</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -13813,7 +13813,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.682995548209049</v>
+        <v>0.637132086768356</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -13827,7 +13827,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.731968574927669</v>
+        <v>0.643101126582628</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
@@ -13841,7 +13841,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.812511457239965</v>
+        <v>0.851225017780569</v>
       </c>
       <c r="C15" t="s">
         <v>77</v>
@@ -13855,7 +13855,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.818460974552795</v>
+        <v>0.56017012025043</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
@@ -13869,7 +13869,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.656169418514038</v>
+        <v>0.777308828792702</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
@@ -13883,7 +13883,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.879441554626566</v>
+        <v>0.934021995669201</v>
       </c>
       <c r="C18" t="s">
         <v>77</v>
@@ -13897,7 +13897,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.838269930018978</v>
+        <v>0.845162269701168</v>
       </c>
       <c r="C19" t="s">
         <v>77</v>
@@ -13911,7 +13911,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.802275397327659</v>
+        <v>0.81119785456503</v>
       </c>
       <c r="C20" t="s">
         <v>77</v>
@@ -13925,7 +13925,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.821005137214301</v>
+        <v>0.836672219584985</v>
       </c>
       <c r="C21" t="s">
         <v>77</v>
@@ -13939,7 +13939,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.769997965748263</v>
+        <v>0.771548571335124</v>
       </c>
       <c r="C22" t="s">
         <v>77</v>
@@ -13953,7 +13953,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.875374487942313</v>
+        <v>0.881627768455457</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -13967,7 +13967,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.859597404653303</v>
+        <v>0.846275083668766</v>
       </c>
       <c r="C24" t="s">
         <v>77</v>
@@ -13981,7 +13981,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.752557352650253</v>
+        <v>0.809892242029818</v>
       </c>
       <c r="C25" t="s">
         <v>77</v>
@@ -13995,7 +13995,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.880477537600624</v>
+        <v>0.878824248595575</v>
       </c>
       <c r="C26" t="s">
         <v>77</v>
@@ -14009,7 +14009,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.82658072192085</v>
+        <v>0.873777218560557</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
@@ -14023,7 +14023,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.745722328571553</v>
+        <v>0.617376734938731</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
@@ -14037,7 +14037,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.795920961759243</v>
+        <v>0.796728949556106</v>
       </c>
       <c r="C29" t="s">
         <v>77</v>
@@ -14051,7 +14051,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.655067744795503</v>
+        <v>0.551640434864742</v>
       </c>
       <c r="C30" t="s">
         <v>77</v>
@@ -14065,7 +14065,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.760902462574486</v>
+        <v>0.632911057323088</v>
       </c>
       <c r="C31" t="s">
         <v>77</v>
@@ -14079,7 +14079,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.787893028102405</v>
+        <v>0.898267111679756</v>
       </c>
       <c r="C32" t="s">
         <v>77</v>
@@ -14093,7 +14093,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.796516320321368</v>
+        <v>0.891789127993506</v>
       </c>
       <c r="C33" t="s">
         <v>77</v>
@@ -14107,7 +14107,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.648157524669925</v>
+        <v>0.615054064840136</v>
       </c>
       <c r="C34" t="s">
         <v>77</v>
@@ -14121,7 +14121,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.656452370696998</v>
+        <v>0.602709257249662</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
@@ -14135,7 +14135,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.563078803071191</v>
+        <v>0.590486348404899</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
@@ -14149,7 +14149,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.671930103123179</v>
+        <v>0.667799326517225</v>
       </c>
       <c r="C37" t="s">
         <v>77</v>
@@ -14163,7 +14163,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.622829052798623</v>
+        <v>0.67637023473759</v>
       </c>
       <c r="C38" t="s">
         <v>77</v>
@@ -14177,7 +14177,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.627904691083607</v>
+        <v>0.694966303429778</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
@@ -14191,7 +14191,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.73141902688914</v>
+        <v>0.792219851927389</v>
       </c>
       <c r="C40" t="s">
         <v>77</v>
@@ -14205,7 +14205,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.808327139244527</v>
+        <v>0.836384152977717</v>
       </c>
       <c r="C41" t="s">
         <v>77</v>
@@ -14219,7 +14219,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.748699669741516</v>
+        <v>0.755813939308303</v>
       </c>
       <c r="C42" t="s">
         <v>77</v>
@@ -14233,7 +14233,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.80413189606184</v>
+        <v>0.77635785086579</v>
       </c>
       <c r="C43" t="s">
         <v>77</v>
@@ -14247,7 +14247,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.783223806248725</v>
+        <v>0.798583670650725</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -14261,7 +14261,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.888579997713917</v>
+        <v>0.898279766169164</v>
       </c>
       <c r="C45" t="s">
         <v>77</v>
@@ -14275,7 +14275,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.86913579456678</v>
+        <v>0.869384439597872</v>
       </c>
       <c r="C46" t="s">
         <v>77</v>
@@ -14289,7 +14289,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>0.85323322894328</v>
+        <v>0.858349085493052</v>
       </c>
       <c r="C47" t="s">
         <v>77</v>
@@ -14303,7 +14303,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.890201484908385</v>
+        <v>0.873332482213551</v>
       </c>
       <c r="C48" t="s">
         <v>77</v>
@@ -14317,7 +14317,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.871814665963225</v>
+        <v>0.870405911541675</v>
       </c>
       <c r="C49" t="s">
         <v>77</v>
@@ -14331,7 +14331,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.552154591681992</v>
+        <v>0.5</v>
       </c>
       <c r="C50" t="s">
         <v>77</v>
@@ -14345,7 +14345,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.759573355543566</v>
+        <v>0.754842385620627</v>
       </c>
       <c r="C51" t="s">
         <v>77</v>
@@ -14359,7 +14359,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.527443278103092</v>
+        <v>0.536376800073006</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
@@ -14373,7 +14373,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>0.536603987114594</v>
+        <v>0.528626994275739</v>
       </c>
       <c r="C53" t="s">
         <v>77</v>
@@ -14387,7 +14387,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>0.926425709369642</v>
+        <v>0.941102350899158</v>
       </c>
       <c r="C54" t="s">
         <v>77</v>
@@ -14401,7 +14401,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>0.902238846888682</v>
+        <v>0.914214867671135</v>
       </c>
       <c r="C55" t="s">
         <v>77</v>
@@ -14415,7 +14415,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>0.600396475664604</v>
+        <v>0.630589130717517</v>
       </c>
       <c r="C56" t="s">
         <v>77</v>
@@ -14429,7 +14429,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>0.622743731495427</v>
+        <v>0.657878384795053</v>
       </c>
       <c r="C57" t="s">
         <v>77</v>
@@ -14443,7 +14443,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>0.634512939024081</v>
+        <v>0.665115585693811</v>
       </c>
       <c r="C58" t="s">
         <v>77</v>
@@ -14457,7 +14457,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>0.743459853292767</v>
+        <v>0.895255649882432</v>
       </c>
       <c r="C59" t="s">
         <v>77</v>
@@ -14471,7 +14471,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>0.752335895297015</v>
+        <v>0.493734648747278</v>
       </c>
       <c r="C60" t="s">
         <v>77</v>
@@ -14485,7 +14485,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>0.793438748594785</v>
+        <v>0.810659747820802</v>
       </c>
       <c r="C61" t="s">
         <v>77</v>
@@ -14499,7 +14499,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>0.866693453074076</v>
+        <v>0.937946737368203</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
@@ -14513,7 +14513,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>0.842877197669802</v>
+        <v>0.847740686099117</v>
       </c>
       <c r="C63" t="s">
         <v>77</v>
@@ -14527,7 +14527,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>0.783909386119032</v>
+        <v>0.816602549764706</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
@@ -14541,7 +14541,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>0.809540746045147</v>
+        <v>0.837345011558374</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
@@ -14555,7 +14555,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>0.782802512997884</v>
+        <v>0.756250807807958</v>
       </c>
       <c r="C66" t="s">
         <v>77</v>
@@ -14569,7 +14569,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>0.883333787954109</v>
+        <v>0.87931238789917</v>
       </c>
       <c r="C67" t="s">
         <v>77</v>
@@ -14611,7 +14611,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.927568340910358</v>
+        <v>0.928010623027157</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -14625,7 +14625,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.910688476478196</v>
+        <v>0.910335869723513</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -14639,7 +14639,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.93156994771822</v>
+        <v>0.931748792559194</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -14681,7 +14681,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.644632559290614</v>
+        <v>0.643510914051578</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -14695,7 +14695,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.503712696101094</v>
+        <v>0.501556634837485</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -14709,7 +14709,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.512257208607479</v>
+        <v>0.508805877749946</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -14737,7 +14737,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.84859829196932</v>
+        <v>0.849261235960024</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -14751,7 +14751,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.653557831499498</v>
+        <v>0.63872764265084</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -14765,7 +14765,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.633677712130439</v>
+        <v>0.634831552549755</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -14779,7 +14779,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.810388633745484</v>
+        <v>0.723273232779537</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
@@ -14793,7 +14793,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.929667604250785</v>
+        <v>0.810388633745484</v>
       </c>
       <c r="C15" t="s">
         <v>77</v>
@@ -14807,7 +14807,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.766506479108199</v>
+        <v>0.760094879550477</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
@@ -14821,7 +14821,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.900079738976177</v>
+        <v>0.912475672102632</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
@@ -14835,7 +14835,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.962478027176303</v>
+        <v>0.953776444817198</v>
       </c>
       <c r="C18" t="s">
         <v>77</v>
@@ -14849,7 +14849,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.856967544428344</v>
+        <v>0.858462934687307</v>
       </c>
       <c r="C19" t="s">
         <v>77</v>
@@ -14863,7 +14863,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.815408187915276</v>
+        <v>0.818951314874978</v>
       </c>
       <c r="C20" t="s">
         <v>77</v>
@@ -14877,7 +14877,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.821031834101104</v>
+        <v>0.824861352920602</v>
       </c>
       <c r="C21" t="s">
         <v>77</v>
@@ -14891,7 +14891,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.648405867199098</v>
+        <v>0.645869951276168</v>
       </c>
       <c r="C22" t="s">
         <v>77</v>
@@ -14905,7 +14905,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.820611826267077</v>
+        <v>0.819933130829417</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -14919,7 +14919,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.925120897424794</v>
+        <v>0.926882317026114</v>
       </c>
       <c r="C24" t="s">
         <v>77</v>
@@ -14933,7 +14933,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.891612608423311</v>
+        <v>0.896756843968594</v>
       </c>
       <c r="C25" t="s">
         <v>77</v>
@@ -14947,7 +14947,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.919282482297608</v>
+        <v>0.917736571448548</v>
       </c>
       <c r="C26" t="s">
         <v>77</v>
@@ -14961,7 +14961,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.836076684620368</v>
+        <v>0.838736659243581</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
@@ -14975,7 +14975,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.59664587084903</v>
+        <v>0.593154777059226</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
@@ -14989,7 +14989,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.745221116233847</v>
+        <v>0.740827874965237</v>
       </c>
       <c r="C29" t="s">
         <v>77</v>
@@ -15003,7 +15003,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.584064579568382</v>
+        <v>0.583165871998287</v>
       </c>
       <c r="C30" t="s">
         <v>77</v>
@@ -15017,7 +15017,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.652001186331901</v>
+        <v>0.65582050523157</v>
       </c>
       <c r="C31" t="s">
         <v>77</v>
@@ -15031,7 +15031,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.859795240882726</v>
+        <v>0.862889019075911</v>
       </c>
       <c r="C32" t="s">
         <v>77</v>
@@ -15045,7 +15045,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.858875556772792</v>
+        <v>0.86248098933649</v>
       </c>
       <c r="C33" t="s">
         <v>77</v>
@@ -15059,7 +15059,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.613463265845345</v>
+        <v>0.614806850026898</v>
       </c>
       <c r="C34" t="s">
         <v>77</v>
@@ -15087,7 +15087,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.657748938030388</v>
+        <v>0.662766894322922</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
@@ -15101,7 +15101,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.729310901102346</v>
+        <v>0.734138232870763</v>
       </c>
       <c r="C37" t="s">
         <v>77</v>
@@ -15115,7 +15115,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.735363266765772</v>
+        <v>0.732022858990285</v>
       </c>
       <c r="C38" t="s">
         <v>77</v>
@@ -15129,7 +15129,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.840462856402504</v>
+        <v>0.855223963326024</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
@@ -15143,7 +15143,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.893772618258298</v>
+        <v>0.887729974749361</v>
       </c>
       <c r="C40" t="s">
         <v>77</v>
@@ -15157,7 +15157,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.858149129894623</v>
+        <v>0.859620100168046</v>
       </c>
       <c r="C41" t="s">
         <v>77</v>
@@ -15171,7 +15171,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.829819882723489</v>
+        <v>0.829905644861396</v>
       </c>
       <c r="C42" t="s">
         <v>77</v>
@@ -15185,7 +15185,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.837360183891948</v>
+        <v>0.835344021256511</v>
       </c>
       <c r="C43" t="s">
         <v>77</v>
@@ -15199,7 +15199,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.735644170082288</v>
+        <v>0.736666448503894</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -15213,7 +15213,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.867563726929723</v>
+        <v>0.864358280877554</v>
       </c>
       <c r="C45" t="s">
         <v>77</v>
@@ -15227,7 +15227,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.932290866732763</v>
+        <v>0.931865874460323</v>
       </c>
       <c r="C46" t="s">
         <v>77</v>
@@ -15255,7 +15255,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.941059697639428</v>
+        <v>0.940514448853646</v>
       </c>
       <c r="C48" t="s">
         <v>77</v>
@@ -15269,7 +15269,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.845175310287988</v>
+        <v>0.841442067747606</v>
       </c>
       <c r="C49" t="s">
         <v>77</v>
@@ -15297,7 +15297,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.67551314693616</v>
+        <v>0.674340658988629</v>
       </c>
       <c r="C51" t="s">
         <v>77</v>
@@ -15311,7 +15311,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.525095926382337</v>
+        <v>0.528165266486452</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
@@ -15325,7 +15325,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>0.552042502224849</v>
+        <v>0.554052842565135</v>
       </c>
       <c r="C53" t="s">
         <v>77</v>
@@ -15339,7 +15339,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>0.891469917160671</v>
+        <v>0.88478736362701</v>
       </c>
       <c r="C54" t="s">
         <v>77</v>
@@ -15353,7 +15353,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>0.881920168856753</v>
+        <v>0.878260419425527</v>
       </c>
       <c r="C55" t="s">
         <v>77</v>
@@ -15367,7 +15367,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>0.617231785641792</v>
+        <v>0.616599782696621</v>
       </c>
       <c r="C56" t="s">
         <v>77</v>
@@ -15381,7 +15381,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>0.601944822587919</v>
+        <v>0.60150224157503</v>
       </c>
       <c r="C57" t="s">
         <v>77</v>
@@ -15395,7 +15395,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>0.670975353908159</v>
+        <v>0.669702492090908</v>
       </c>
       <c r="C58" t="s">
         <v>77</v>
@@ -15409,7 +15409,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>0.718559496970685</v>
+        <v>0.714484967040267</v>
       </c>
       <c r="C59" t="s">
         <v>77</v>
@@ -15423,7 +15423,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>0.82097778180918</v>
+        <v>0.819135421044403</v>
       </c>
       <c r="C60" t="s">
         <v>77</v>
@@ -15437,7 +15437,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>0.901536583231274</v>
+        <v>0.913584249098847</v>
       </c>
       <c r="C61" t="s">
         <v>77</v>
@@ -15451,7 +15451,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>0.936433896280974</v>
+        <v>0.924581485350938</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
@@ -15465,7 +15465,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>0.858756434936097</v>
+        <v>0.860901296952439</v>
       </c>
       <c r="C63" t="s">
         <v>77</v>
@@ -15479,7 +15479,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>0.826658295139016</v>
+        <v>0.824925255289031</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
@@ -15493,7 +15493,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>0.83333411279102</v>
+        <v>0.833044636093299</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
@@ -15507,7 +15507,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>0.703244883216914</v>
+        <v>0.707345712990729</v>
       </c>
       <c r="C66" t="s">
         <v>77</v>
@@ -15521,7 +15521,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>0.861092907475815</v>
+        <v>0.85865526257812</v>
       </c>
       <c r="C67" t="s">
         <v>77</v>
@@ -17859,7 +17859,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.922519619017772</v>
+        <v>0.926723409643032</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -17873,7 +17873,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.707205112493146</v>
+        <v>0.752092811450777</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -17887,7 +17887,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.701745839036556</v>
+        <v>0.725563483780832</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -17901,7 +17901,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.653817003161712</v>
+        <v>0.656687830153419</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -17915,7 +17915,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.92098654969554</v>
+        <v>0.904239133615934</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -17929,7 +17929,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.932439405288226</v>
+        <v>0.9405747030848</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -17943,7 +17943,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9947583515399</v>
+        <v>0.989668541871822</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -17957,7 +17957,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.497670341178401</v>
+        <v>0.539265760309559</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -17971,7 +17971,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.836250510425342</v>
+        <v>0.838466940947023</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
@@ -17985,7 +17985,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.978685897435897</v>
+        <v>0.963081985150578</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -17999,7 +17999,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525545744186834</v>
+        <v>0.520023013349121</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -18013,7 +18013,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.644182993964841</v>
+        <v>0.643738663484059</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -18027,7 +18027,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.514152994420434</v>
+        <v>0.496960788313055</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
@@ -18041,7 +18041,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.618297576413218</v>
+        <v>0.608279235631922</v>
       </c>
       <c r="C15" t="s">
         <v>77</v>
@@ -18055,7 +18055,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.967176450976258</v>
+        <v>0.967885403852094</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
@@ -18069,7 +18069,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.939872555806844</v>
+        <v>0.939701842466232</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
@@ -18083,7 +18083,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.944611358003428</v>
+        <v>0.942639911916082</v>
       </c>
       <c r="C18" t="s">
         <v>77</v>
@@ -18097,7 +18097,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.92726823326628</v>
+        <v>0.929974218165639</v>
       </c>
       <c r="C19" t="s">
         <v>77</v>
@@ -18111,7 +18111,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.736353921091121</v>
+        <v>0.738619862623295</v>
       </c>
       <c r="C20" t="s">
         <v>77</v>
@@ -18125,7 +18125,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.838556426517142</v>
+        <v>0.84791892242489</v>
       </c>
       <c r="C21" t="s">
         <v>77</v>
@@ -18139,7 +18139,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.648605316682083</v>
+        <v>0.650710164138004</v>
       </c>
       <c r="C22" t="s">
         <v>77</v>
@@ -18153,7 +18153,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.823596403375925</v>
+        <v>0.798753373362869</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -18167,7 +18167,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.862514361226682</v>
+        <v>0.817922543282342</v>
       </c>
       <c r="C24" t="s">
         <v>77</v>
@@ -18181,7 +18181,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.970078485756938</v>
+        <v>0.921320922582142</v>
       </c>
       <c r="C25" t="s">
         <v>77</v>
@@ -18195,7 +18195,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.670088459108052</v>
+        <v>0.752515698222544</v>
       </c>
       <c r="C26" t="s">
         <v>77</v>
@@ -18209,7 +18209,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.803695863677851</v>
+        <v>0.811348617900723</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
@@ -18223,7 +18223,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.945034944272032</v>
+        <v>0.909008670451016</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
@@ -18237,7 +18237,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.56860697551479</v>
+        <v>0.56700742577613</v>
       </c>
       <c r="C29" t="s">
         <v>77</v>
@@ -18251,7 +18251,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.730809745155335</v>
+        <v>0.730573899856004</v>
       </c>
       <c r="C30" t="s">
         <v>77</v>
@@ -18265,7 +18265,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5457987348372</v>
+        <v>0.54444862873072</v>
       </c>
       <c r="C31" t="s">
         <v>77</v>
@@ -18279,7 +18279,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.692880984501348</v>
+        <v>0.691129590501555</v>
       </c>
       <c r="C32" t="s">
         <v>77</v>
@@ -18293,7 +18293,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.955919449694788</v>
+        <v>0.963185878328533</v>
       </c>
       <c r="C33" t="s">
         <v>77</v>
@@ -18307,7 +18307,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.919904260146457</v>
+        <v>0.928084850758182</v>
       </c>
       <c r="C34" t="s">
         <v>77</v>
@@ -18321,7 +18321,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.94190607053382</v>
+        <v>0.940791696407336</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
@@ -18335,7 +18335,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.917245452584371</v>
+        <v>0.933953417657701</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
@@ -18349,7 +18349,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.749574236860879</v>
+        <v>0.768463623893093</v>
       </c>
       <c r="C37" t="s">
         <v>77</v>
@@ -18363,7 +18363,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.713705326235683</v>
+        <v>0.845957121135938</v>
       </c>
       <c r="C38" t="s">
         <v>77</v>
@@ -18377,7 +18377,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.667931776795761</v>
+        <v>0.658264566315349</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
@@ -18391,7 +18391,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5</v>
+        <v>0.880213793683384</v>
       </c>
       <c r="C40" t="s">
         <v>77</v>
@@ -18405,7 +18405,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5</v>
+        <v>0.804058421270825</v>
       </c>
       <c r="C41" t="s">
         <v>77</v>
@@ -18419,7 +18419,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5</v>
+        <v>0.689134090475684</v>
       </c>
       <c r="C42" t="s">
         <v>77</v>
@@ -18433,7 +18433,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5</v>
+        <v>0.738517754819139</v>
       </c>
       <c r="C43" t="s">
         <v>77</v>
@@ -18447,7 +18447,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5</v>
+        <v>0.815649496273901</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -18461,7 +18461,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5</v>
+        <v>0.795315392636089</v>
       </c>
       <c r="C45" t="s">
         <v>77</v>
@@ -18517,7 +18517,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5</v>
+        <v>0.509310288311941</v>
       </c>
       <c r="C49" t="s">
         <v>77</v>
@@ -18531,7 +18531,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5</v>
+        <v>0.759771804886681</v>
       </c>
       <c r="C50" t="s">
         <v>77</v>
@@ -18545,7 +18545,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5</v>
+        <v>0.577782933814764</v>
       </c>
       <c r="C51" t="s">
         <v>77</v>
@@ -18559,7 +18559,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.938708790717944</v>
+        <v>0.945916794823786</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
@@ -20001,7 +20001,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.799286725044775</v>
+        <v>0.815066800070935</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -20015,7 +20015,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.501983158525748</v>
+        <v>0.501455537661705</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -20029,7 +20029,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.513036311322023</v>
+        <v>0.512396166190203</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -20043,7 +20043,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.528831614516326</v>
+        <v>0.531456656661907</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -20057,7 +20057,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.894935989471165</v>
+        <v>0.845356620806906</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -20071,7 +20071,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.903324620661304</v>
+        <v>0.93372566640945</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -20085,7 +20085,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.999760324823139</v>
+        <v>0.988237065477199</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -20099,7 +20099,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.49748743718593</v>
+        <v>0.507956448911223</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -20113,7 +20113,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.765916924365417</v>
+        <v>0.768795585539245</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -20127,7 +20127,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.969649932354078</v>
+        <v>0.949695162162519</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -20141,7 +20141,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.610591524538291</v>
+        <v>0.609522353650115</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -20155,7 +20155,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.748749294597947</v>
+        <v>0.756672977307187</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -20169,7 +20169,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.579256556420092</v>
+        <v>0.581528441644623</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -20183,7 +20183,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.776026840320123</v>
+        <v>0.772102512797633</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -20197,7 +20197,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.953599163903496</v>
+        <v>0.91544251956847</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -20211,7 +20211,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.883195929710288</v>
+        <v>0.896417288740917</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -20225,7 +20225,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.755301868067759</v>
+        <v>0.738491858452814</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -20239,7 +20239,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.838538508947745</v>
+        <v>0.829890629356233</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -20253,7 +20253,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.507107550528914</v>
+        <v>0.507938752563316</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -20267,7 +20267,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.694280878854796</v>
+        <v>0.770250253842723</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -20281,7 +20281,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.628541452694172</v>
+        <v>0.61442209191337</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -20295,7 +20295,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.610514534281896</v>
+        <v>0.935127416106751</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -20309,7 +20309,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.707029412041481</v>
+        <v>0.973602014441747</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -20323,7 +20323,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.751711997095339</v>
+        <v>0.999509877728217</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -20337,7 +20337,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.516020885266226</v>
+        <v>0.612020568722879</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -20351,7 +20351,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.562856935596618</v>
+        <v>0.818471870507393</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -20365,7 +20365,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7598750807845</v>
+        <v>0.968922697476886</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -20379,7 +20379,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.639585749383859</v>
+        <v>0.630751299235357</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -20393,7 +20393,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.773718981713413</v>
+        <v>0.777160387204372</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -20407,7 +20407,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.598217780073113</v>
+        <v>0.600204933526461</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -20421,7 +20421,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.771915421251209</v>
+        <v>0.740831300191433</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -20435,7 +20435,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.933471635602712</v>
+        <v>0.906104692868083</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -20449,7 +20449,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.871923872298294</v>
+        <v>0.813773443446537</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -20463,7 +20463,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.843441233961711</v>
+        <v>0.831001962651419</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -20477,7 +20477,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.844390821061662</v>
+        <v>0.851060536897501</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -20491,7 +20491,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.600806333565848</v>
+        <v>0.504479379567275</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -20505,7 +20505,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.593686872680105</v>
+        <v>0.610904293159312</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -20519,7 +20519,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.560491080881172</v>
+        <v>0.601876706674212</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -20533,7 +20533,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.92633343763997</v>
+        <v>0.909564990997434</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -20547,7 +20547,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.96300373969972</v>
+        <v>0.956937857201112</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -20561,7 +20561,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0.983825965031148</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -20575,7 +20575,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.49748743718593</v>
+        <v>0.602393941492238</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -20589,7 +20589,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.805366979126401</v>
+        <v>0.773154239042984</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -20603,7 +20603,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.979967948717949</v>
+        <v>0.987727762829897</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -20617,7 +20617,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.612907110298513</v>
+        <v>0.612630193666304</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -20631,7 +20631,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>0.756250667904355</v>
+        <v>0.743347100053034</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -20645,7 +20645,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.578793411200908</v>
+        <v>0.571325765240071</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -20659,7 +20659,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.772326747162007</v>
+        <v>0.766362320055682</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -20673,7 +20673,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.934159824915466</v>
+        <v>0.941908926854516</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -20687,7 +20687,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.907689331574706</v>
+        <v>0.891924041637424</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -20701,7 +20701,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.834956975664775</v>
+        <v>0.812202553220174</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -20743,7 +20743,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.795681329728791</v>
+        <v>0.791333709556696</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -20757,7 +20757,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.788764327775976</v>
+        <v>0.79679229388179</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -20771,7 +20771,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.826824619396589</v>
+        <v>0.860812167615856</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -20785,7 +20785,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.813905619751898</v>
+        <v>0.829589659788541</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -20799,7 +20799,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0853079765182815</v>
+        <v>0.0763486422229823</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -20813,7 +20813,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.592608607156832</v>
+        <v>0.56345301198441</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -20827,7 +20827,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.137195302146164</v>
+        <v>0.147303109313222</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -20855,7 +20855,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.934108615887695</v>
+        <v>0.934866666821639</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
@@ -20869,7 +20869,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.874144899739573</v>
+        <v>0.872069220129647</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
@@ -20883,7 +20883,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.860244737504021</v>
+        <v>0.717637444257586</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -20897,7 +20897,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.841573406376014</v>
+        <v>0.835235923328881</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
@@ -20911,7 +20911,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.949856774430385</v>
+        <v>0.885585253925347</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -20925,7 +20925,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.971939907100831</v>
+        <v>0.977851677940115</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
@@ -20939,7 +20939,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.963839397260647</v>
+        <v>0.404131357872255</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
@@ -20953,7 +20953,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.55832505575801</v>
+        <v>0.801225992617329</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
@@ -20967,7 +20967,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.976439139838959</v>
+        <v>0.983750171399616</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
@@ -20981,7 +20981,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.737427323934211</v>
+        <v>0.752581093669324</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
@@ -20995,7 +20995,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.729726192818165</v>
+        <v>0.737684699812374</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
@@ -21009,7 +21009,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.749889758600245</v>
+        <v>0.760928315925787</v>
       </c>
       <c r="C21" t="s">
         <v>74</v>
@@ -21023,7 +21023,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.593559619413048</v>
+        <v>0.586057282719843</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
@@ -21037,7 +21037,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.840016310077451</v>
+        <v>0.847407377318283</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -21051,7 +21051,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.856475890153391</v>
+        <v>0.827335750868678</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -21065,7 +21065,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.775153697959315</v>
+        <v>0.820023751961092</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -21079,7 +21079,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.882862223371864</v>
+        <v>0.880489131839741</v>
       </c>
       <c r="C26" t="s">
         <v>74</v>
@@ -21093,7 +21093,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.836327621900853</v>
+        <v>0.874681873765139</v>
       </c>
       <c r="C27" t="s">
         <v>74</v>
@@ -21107,7 +21107,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.608104872736932</v>
+        <v>0.324807649145004</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
@@ -21121,7 +21121,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.772383699853458</v>
+        <v>0.716979083795344</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
@@ -21135,7 +21135,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.55888959649401</v>
+        <v>0.297652641983621</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
@@ -21149,7 +21149,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.614987666183347</v>
+        <v>0.336022975080066</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
@@ -21163,7 +21163,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.88131867771157</v>
+        <v>0.933089712325904</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
@@ -21177,7 +21177,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.872730341503753</v>
+        <v>0.897572980839264</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
@@ -21191,7 +21191,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.810364222085013</v>
+        <v>0.788984472977409</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
@@ -21205,7 +21205,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>0.896302957878813</v>
+        <v>0.788240781368082</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
@@ -21219,7 +21219,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.630250961197153</v>
+        <v>0.761422651332002</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
@@ -21233,7 +21233,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.919396040468482</v>
+        <v>0.909562645012959</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
@@ -21247,7 +21247,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.789138148924417</v>
+        <v>0.877636458294432</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
@@ -21261,7 +21261,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.800241867885197</v>
+        <v>0.883702362810154</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
@@ -21275,7 +21275,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.935471894716961</v>
+        <v>0.964485644340824</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
@@ -21289,7 +21289,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.805076628584006</v>
+        <v>0.807058810199026</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
@@ -21303,7 +21303,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.757848367398799</v>
+        <v>0.756011702340676</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
@@ -21317,7 +21317,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.788098021977286</v>
+        <v>0.77383633682857</v>
       </c>
       <c r="C43" t="s">
         <v>74</v>
@@ -21331,7 +21331,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.665746437308779</v>
+        <v>0.703025921550863</v>
       </c>
       <c r="C44" t="s">
         <v>74</v>
@@ -21345,7 +21345,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.890093991466749</v>
+        <v>0.891280660946278</v>
       </c>
       <c r="C45" t="s">
         <v>74</v>
@@ -21359,7 +21359,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.80501922146514</v>
+        <v>0.807775330988354</v>
       </c>
       <c r="C46" t="s">
         <v>74</v>
@@ -21373,7 +21373,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>0.801481557673004</v>
+        <v>0.815477200496894</v>
       </c>
       <c r="C47" t="s">
         <v>74</v>
@@ -21387,7 +21387,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.865767736225859</v>
+        <v>0.837542540464525</v>
       </c>
       <c r="C48" t="s">
         <v>74</v>
@@ -21401,7 +21401,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.836965444834651</v>
+        <v>0.838829911863585</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
@@ -21415,7 +21415,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.147735050834092</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
         <v>74</v>
@@ -21429,7 +21429,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.603836770086661</v>
+        <v>0.572387138912056</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
@@ -21443,7 +21443,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177868278827931</v>
+        <v>0.142550064350653</v>
       </c>
       <c r="C52" t="s">
         <v>74</v>
@@ -21457,7 +21457,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1271768107831</v>
+        <v>0.0864653130000527</v>
       </c>
       <c r="C53" t="s">
         <v>74</v>
@@ -21471,7 +21471,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>0.934691440467938</v>
+        <v>0.935665903239156</v>
       </c>
       <c r="C54" t="s">
         <v>74</v>
@@ -21485,7 +21485,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>0.874952741235121</v>
+        <v>0.878123519501749</v>
       </c>
       <c r="C55" t="s">
         <v>74</v>
@@ -21499,7 +21499,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>0.71508358799173</v>
+        <v>0.682924999265548</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
@@ -21513,7 +21513,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>0.822478320829974</v>
+        <v>0.854957531665978</v>
       </c>
       <c r="C57" t="s">
         <v>74</v>
@@ -21527,7 +21527,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>0.872184979299478</v>
+        <v>0.912675432668233</v>
       </c>
       <c r="C58" t="s">
         <v>74</v>
@@ -21541,7 +21541,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>0.954259378667574</v>
+        <v>0.982662127907906</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
@@ -21555,7 +21555,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>0.851500794965271</v>
+        <v>0.14345802226677</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
@@ -21569,7 +21569,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>0.860364812212827</v>
+        <v>0.852103200979755</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
@@ -21583,7 +21583,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>0.974278395566927</v>
+        <v>0.984178540752119</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
@@ -21597,7 +21597,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>0.757065557664602</v>
+        <v>0.771237047158043</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
@@ -21611,7 +21611,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>0.752084455340217</v>
+        <v>0.71723064820739</v>
       </c>
       <c r="C64" t="s">
         <v>74</v>
@@ -21625,7 +21625,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>0.765151923151962</v>
+        <v>0.741879396357586</v>
       </c>
       <c r="C65" t="s">
         <v>74</v>
@@ -21639,7 +21639,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>0.649819520786981</v>
+        <v>0.546371142622735</v>
       </c>
       <c r="C66" t="s">
         <v>74</v>
@@ -21653,7 +21653,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>0.852779632055967</v>
+        <v>0.847967369300539</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -21695,7 +21695,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.890720835697731</v>
+        <v>0.891462794040208</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -21709,7 +21709,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.873797859205107</v>
+        <v>0.873660242406205</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -21723,7 +21723,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.904394876139175</v>
+        <v>0.904673108687255</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -21765,7 +21765,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.369451143953889</v>
+        <v>0.369383073728722</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -21779,7 +21779,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0422345218194301</v>
+        <v>0.0422267886834467</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -21793,7 +21793,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0408552329346578</v>
+        <v>0.0408515732192445</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -21821,7 +21821,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.755236153057278</v>
+        <v>0.757360123761971</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
@@ -21835,7 +21835,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.88745267723708</v>
+        <v>0.83490939593585</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -21849,7 +21849,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.855954998546987</v>
+        <v>0.858062746132576</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
@@ -21863,7 +21863,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.96049575718518</v>
+        <v>0.94085125495949</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -21877,7 +21877,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.945098337934285</v>
+        <v>0.96049575718518</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
@@ -21891,7 +21891,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.795835681194581</v>
+        <v>0.7948032452816</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
@@ -21905,7 +21905,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.899713228837063</v>
+        <v>0.921931715937593</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
@@ -21919,7 +21919,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.957109166778212</v>
+        <v>0.966464738643515</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
@@ -21933,7 +21933,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.797986363788846</v>
+        <v>0.80296361575163</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
@@ -21947,7 +21947,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.688195825646477</v>
+        <v>0.694182543980331</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
@@ -21961,7 +21961,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.725712322245685</v>
+        <v>0.729163798173765</v>
       </c>
       <c r="C21" t="s">
         <v>74</v>
@@ -21975,7 +21975,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.322041961692533</v>
+        <v>0.313416276755788</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
@@ -21989,7 +21989,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.726574556557473</v>
+        <v>0.726364735725291</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -22003,7 +22003,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.917672426927006</v>
+        <v>0.917101183490157</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -22017,7 +22017,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.902026955190964</v>
+        <v>0.903569049120624</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -22031,7 +22031,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.922007023025962</v>
+        <v>0.917040281541248</v>
       </c>
       <c r="C26" t="s">
         <v>74</v>
@@ -22045,7 +22045,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.847765667947949</v>
+        <v>0.849885510784212</v>
       </c>
       <c r="C27" t="s">
         <v>74</v>
@@ -22059,7 +22059,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.238783274517629</v>
+        <v>0.219457012873888</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
@@ -22073,7 +22073,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.622794467787319</v>
+        <v>0.613171856985613</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
@@ -22087,7 +22087,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.326157432396524</v>
+        <v>0.315695466135134</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
@@ -22101,7 +22101,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.375788388136833</v>
+        <v>0.37809448052735</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
@@ -22115,7 +22115,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.921512520259686</v>
+        <v>0.923919380903514</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
@@ -22129,7 +22129,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.884310057520805</v>
+        <v>0.886041179235933</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
@@ -22143,7 +22143,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.804610989193309</v>
+        <v>0.806964805014315</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
@@ -22171,7 +22171,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.888951504758509</v>
+        <v>0.894759598150775</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
@@ -22185,7 +22185,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>0.936130311543693</v>
+        <v>0.938234991309981</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
@@ -22199,7 +22199,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>0.90926429118584</v>
+        <v>0.907569482086723</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
@@ -22213,7 +22213,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.96031204478584</v>
+        <v>0.963237920690185</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
@@ -22227,7 +22227,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.959928976508402</v>
+        <v>0.959108874712807</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
@@ -22241,7 +22241,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.852402989674468</v>
+        <v>0.85368589260732</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
@@ -22255,7 +22255,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.77867407163902</v>
+        <v>0.771075046654793</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
@@ -22269,7 +22269,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.795666006719417</v>
+        <v>0.789829167158501</v>
       </c>
       <c r="C43" t="s">
         <v>74</v>
@@ -22283,7 +22283,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.55142982574096</v>
+        <v>0.542805797030161</v>
       </c>
       <c r="C44" t="s">
         <v>74</v>
@@ -22297,7 +22297,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.861271767478021</v>
+        <v>0.856111385469089</v>
       </c>
       <c r="C45" t="s">
         <v>74</v>
@@ -22311,7 +22311,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.904623446712779</v>
+        <v>0.904459312909974</v>
       </c>
       <c r="C46" t="s">
         <v>74</v>
@@ -22339,7 +22339,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.922988986668255</v>
+        <v>0.922535872420725</v>
       </c>
       <c r="C48" t="s">
         <v>74</v>
@@ -22353,7 +22353,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>0.821934624122591</v>
+        <v>0.821186266381672</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
@@ -22381,7 +22381,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.519038718543288</v>
+        <v>0.518842373267284</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
@@ -22395,7 +22395,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>0.139665130314516</v>
+        <v>0.145875471023388</v>
       </c>
       <c r="C52" t="s">
         <v>74</v>
@@ -22409,7 +22409,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>0.141463278903999</v>
+        <v>0.141475961075247</v>
       </c>
       <c r="C53" t="s">
         <v>74</v>
@@ -22423,7 +22423,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>0.899394311491106</v>
+        <v>0.897823171421544</v>
       </c>
       <c r="C54" t="s">
         <v>74</v>
@@ -22437,7 +22437,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>0.85743031306891</v>
+        <v>0.856726956725991</v>
       </c>
       <c r="C55" t="s">
         <v>74</v>
@@ -22451,7 +22451,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>0.817528348839396</v>
+        <v>0.816301135214573</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
@@ -22465,7 +22465,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>0.779061240330291</v>
+        <v>0.77766881519524</v>
       </c>
       <c r="C57" t="s">
         <v>74</v>
@@ -22479,7 +22479,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>0.903401726525202</v>
+        <v>0.902126635238301</v>
       </c>
       <c r="C58" t="s">
         <v>74</v>
@@ -22493,7 +22493,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>0.930999137867326</v>
+        <v>0.928878063032042</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
@@ -22507,7 +22507,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>0.938017865931788</v>
+        <v>0.937607444618799</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
@@ -22521,7 +22521,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>0.941231184932845</v>
+        <v>0.962385088778537</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
@@ -22535,7 +22535,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>0.964834948717176</v>
+        <v>0.963610797305984</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
@@ -22549,7 +22549,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>0.822568651816555</v>
+        <v>0.827460261040475</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
@@ -22563,7 +22563,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>0.751005415642709</v>
+        <v>0.751758663096592</v>
       </c>
       <c r="C64" t="s">
         <v>74</v>
@@ -22577,7 +22577,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>0.783937158994051</v>
+        <v>0.784870072827947</v>
       </c>
       <c r="C65" t="s">
         <v>74</v>
@@ -22591,7 +22591,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>0.447977799115196</v>
+        <v>0.456086652773349</v>
       </c>
       <c r="C66" t="s">
         <v>74</v>
@@ -22605,7 +22605,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>0.826395041853451</v>
+        <v>0.825405052639304</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
